--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.820859175197768</v>
+        <v>1.82085917519754</v>
       </c>
       <c r="C2">
-        <v>0.2533924394850828</v>
+        <v>0.2533924394845712</v>
       </c>
       <c r="D2">
-        <v>0.3496355729519536</v>
+        <v>0.3496355729521952</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.526617008795938</v>
+        <v>6.52661700879591</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4320699170801063</v>
+        <v>0.4320699170801419</v>
       </c>
       <c r="K2">
-        <v>0.320884752655104</v>
+        <v>0.3208847526550471</v>
       </c>
       <c r="L2">
-        <v>0.7714814605295004</v>
+        <v>0.7714814605295288</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>1.557479013757671</v>
       </c>
       <c r="C3">
-        <v>0.2180558493009812</v>
+        <v>0.2180558493011802</v>
       </c>
       <c r="D3">
-        <v>0.3107545066446704</v>
+        <v>0.310754506644372</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.729686093532621</v>
+        <v>5.729686093532592</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3686027993681478</v>
+        <v>0.3686027993681193</v>
       </c>
       <c r="K3">
-        <v>0.2773739162855122</v>
+        <v>0.2773739162854696</v>
       </c>
       <c r="L3">
-        <v>0.6631051233441028</v>
+        <v>0.6631051233440886</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.400168533461851</v>
+        <v>1.400168533461567</v>
       </c>
       <c r="C4">
-        <v>0.1969599115497118</v>
+        <v>0.1969599115503513</v>
       </c>
       <c r="D4">
-        <v>0.2873996851418781</v>
+        <v>0.2873996851419633</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.251416877622802</v>
+        <v>5.251416877622745</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3307007987805477</v>
+        <v>0.3307007987805548</v>
       </c>
       <c r="K4">
-        <v>0.2513318549959038</v>
+        <v>0.2513318549958825</v>
       </c>
       <c r="L4">
-        <v>0.5983074758586611</v>
+        <v>0.5983074758586682</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.337009532511104</v>
+        <v>1.337009532510905</v>
       </c>
       <c r="C5">
-        <v>0.1884866459111976</v>
+        <v>0.1884866459112402</v>
       </c>
       <c r="D5">
-        <v>0.2779903032785143</v>
+        <v>0.2779903032785569</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.058872397451069</v>
+        <v>5.058872397451012</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0.3154828122079891</v>
       </c>
       <c r="K5">
-        <v>0.2408643060815692</v>
+        <v>0.2408643060815763</v>
       </c>
       <c r="L5">
-        <v>0.5722774404384836</v>
+        <v>0.5722774404384552</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.326574792628094</v>
+        <v>1.326574792628037</v>
       </c>
       <c r="C6">
-        <v>0.1870863796267344</v>
+        <v>0.1870863796263933</v>
       </c>
       <c r="D6">
-        <v>0.2764337875292426</v>
+        <v>0.2764337875294132</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.027031146663177</v>
+        <v>5.027031146663205</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3129685000147191</v>
+        <v>0.3129685000146907</v>
       </c>
       <c r="K6">
-        <v>0.2391342527994809</v>
+        <v>0.2391342527995448</v>
       </c>
       <c r="L6">
-        <v>0.567976127808528</v>
+        <v>0.5679761278085351</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.399313118265155</v>
+        <v>1.39931311826507</v>
       </c>
       <c r="C7">
-        <v>0.1968451722121785</v>
+        <v>0.1968451722118942</v>
       </c>
       <c r="D7">
-        <v>0.2872723780078985</v>
+        <v>0.2872723780081259</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.248811152355046</v>
+        <v>5.248811152354989</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3304946937997926</v>
+        <v>0.3304946937997641</v>
       </c>
       <c r="K7">
-        <v>0.2511901303115707</v>
+        <v>0.2511901303115565</v>
       </c>
       <c r="L7">
-        <v>0.5979549840906557</v>
+        <v>0.597954984090677</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.72902802410934</v>
+        <v>1.729028024109311</v>
       </c>
       <c r="C8">
-        <v>0.2410659931881582</v>
+        <v>0.2410659931885988</v>
       </c>
       <c r="D8">
         <v>0.3361075231908472</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.249271630800507</v>
+        <v>6.249271630800536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4099388258909329</v>
+        <v>0.40993882589094</v>
       </c>
       <c r="K8">
-        <v>0.3057266841050605</v>
+        <v>0.3057266841050534</v>
       </c>
       <c r="L8">
         <v>0.7337104502953053</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.41896972851049</v>
+        <v>2.41896972851066</v>
       </c>
       <c r="C9">
-        <v>0.3339986003283713</v>
+        <v>0.333998600328357</v>
       </c>
       <c r="D9">
-        <v>0.4371446662069758</v>
+        <v>0.4371446662069474</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.320787244470296</v>
+        <v>8.320787244470381</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5763298306172473</v>
+        <v>0.576329830617297</v>
       </c>
       <c r="K9">
-        <v>0.4192942143956984</v>
+        <v>0.4192942143956842</v>
       </c>
       <c r="L9">
-        <v>1.017075469151095</v>
+        <v>1.017075469151116</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.966162871030406</v>
+        <v>2.966162871030235</v>
       </c>
       <c r="C10">
-        <v>0.4084753460845292</v>
+        <v>0.4084753460840602</v>
       </c>
       <c r="D10">
         <v>0.5164834515877317</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.945404327249292</v>
+        <v>9.945404327249321</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7085637851029247</v>
+        <v>0.708563785102946</v>
       </c>
       <c r="K10">
-        <v>0.5088578473667198</v>
+        <v>0.5088578473667837</v>
       </c>
       <c r="L10">
-        <v>1.24113183837197</v>
+        <v>1.241131838371984</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.227701415609886</v>
+        <v>3.227701415609488</v>
       </c>
       <c r="C11">
-        <v>0.4443841569839577</v>
+        <v>0.4443841569840146</v>
       </c>
       <c r="D11">
-        <v>0.5542074523796998</v>
+        <v>0.5542074523797282</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.71665523605236</v>
+        <v>10.71665523605219</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7718734701363843</v>
+        <v>0.771873470136299</v>
       </c>
       <c r="K11">
-        <v>0.5515101803209248</v>
+        <v>0.5515101803209035</v>
       </c>
       <c r="L11">
-        <v>1.348008358902248</v>
+        <v>1.348008358902234</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>3.328953288896855</v>
       </c>
       <c r="C12">
-        <v>0.4583452239959342</v>
+        <v>0.4583452239963464</v>
       </c>
       <c r="D12">
-        <v>0.5687809272231164</v>
+        <v>0.5687809272232016</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.01435267436682</v>
+        <v>11.0143526743671</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7964033396498351</v>
+        <v>0.796403339649828</v>
       </c>
       <c r="K12">
-        <v>0.5679955341312208</v>
+        <v>0.5679955341312919</v>
       </c>
       <c r="L12">
-        <v>1.389346955669538</v>
+        <v>1.389346955669524</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.307041259971868</v>
+        <v>3.307041259971754</v>
       </c>
       <c r="C13">
-        <v>0.4553210056876509</v>
+        <v>0.4553210056875798</v>
       </c>
       <c r="D13">
-        <v>0.5656284868258297</v>
+        <v>0.5656284868261992</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.94996910520013</v>
+        <v>10.94996910520035</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7910938223234325</v>
+        <v>0.791093822323468</v>
       </c>
       <c r="K13">
-        <v>0.5644292017622945</v>
+        <v>0.5644292017622803</v>
       </c>
       <c r="L13">
-        <v>1.380402606087245</v>
+        <v>1.380402606087273</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.235984551386082</v>
+        <v>3.235984551386252</v>
       </c>
       <c r="C14">
-        <v>0.4455250008514469</v>
+        <v>0.4455250008514611</v>
       </c>
       <c r="D14">
-        <v>0.5554003014339912</v>
+        <v>0.5554003014342186</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.74102743780679</v>
+        <v>10.74102743780674</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7738797584940542</v>
+        <v>0.7738797584940755</v>
       </c>
       <c r="K14">
-        <v>0.5528593688673737</v>
+        <v>0.5528593688673524</v>
       </c>
       <c r="L14">
-        <v>1.351390943733037</v>
+        <v>1.351390943732994</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,10 +909,10 @@
         <v>3.192761626096569</v>
       </c>
       <c r="C15">
-        <v>0.4395743362504732</v>
+        <v>0.4395743362500468</v>
       </c>
       <c r="D15">
-        <v>0.5491745388587503</v>
+        <v>0.549174538858523</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7634114164179024</v>
+        <v>0.7634114164179238</v>
       </c>
       <c r="K15">
-        <v>0.5458179428706771</v>
+        <v>0.5458179428706558</v>
       </c>
       <c r="L15">
         <v>1.333738449933392</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.949356938781193</v>
+        <v>2.949356938781364</v>
       </c>
       <c r="C16">
-        <v>0.4061752255327491</v>
+        <v>0.4061752255327633</v>
       </c>
       <c r="D16">
-        <v>0.5140552930402862</v>
+        <v>0.5140552930406841</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.89573143559619</v>
+        <v>9.895731435596304</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7044981252774747</v>
+        <v>0.7044981252774818</v>
       </c>
       <c r="K16">
-        <v>0.5061136535228528</v>
+        <v>0.5061136535229522</v>
       </c>
       <c r="L16">
-        <v>1.234259411420936</v>
+        <v>1.234259411420922</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.803527855635139</v>
+        <v>2.803527855635025</v>
       </c>
       <c r="C17">
-        <v>0.386252015477595</v>
+        <v>0.3862520154776803</v>
       </c>
       <c r="D17">
-        <v>0.492963875301399</v>
+        <v>0.4929638753014558</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.464121960675783</v>
+        <v>9.464121960675584</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6692315556904234</v>
+        <v>0.6692315556903736</v>
       </c>
       <c r="K17">
         <v>0.4822841725369358</v>
       </c>
       <c r="L17">
-        <v>1.174601677620885</v>
+        <v>1.174601677620899</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.720810572863513</v>
+        <v>2.720810572863741</v>
       </c>
       <c r="C18">
-        <v>0.3749786555418808</v>
+        <v>0.3749786555423782</v>
       </c>
       <c r="D18">
-        <v>0.4809825721515324</v>
+        <v>0.480982572151305</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.218832477923769</v>
+        <v>9.218832477923712</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6492370427457459</v>
+        <v>0.6492370427457814</v>
       </c>
       <c r="K18">
-        <v>0.4687536719569465</v>
+        <v>0.4687536719569536</v>
       </c>
       <c r="L18">
-        <v>1.140743442972358</v>
+        <v>1.140743442972344</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.692992187189986</v>
+        <v>2.692992187190441</v>
       </c>
       <c r="C19">
-        <v>0.3711916796536627</v>
+        <v>0.3711916796537196</v>
       </c>
       <c r="D19">
-        <v>0.4769501870853219</v>
+        <v>0.4769501870853787</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.136262398129844</v>
+        <v>9.13626239812973</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6425142384900511</v>
+        <v>0.6425142384900653</v>
       </c>
       <c r="K19">
-        <v>0.4642010050916809</v>
+        <v>0.4642010050916667</v>
       </c>
       <c r="L19">
-        <v>1.129353582373483</v>
+        <v>1.129353582373447</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.818928937536839</v>
+        <v>2.818928937537123</v>
       </c>
       <c r="C20">
-        <v>0.3883531593834277</v>
+        <v>0.3883531593829161</v>
       </c>
       <c r="D20">
-        <v>0.4951932205418927</v>
+        <v>0.4951932205420917</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.509754362017162</v>
+        <v>9.509754362017304</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6729550639751167</v>
+        <v>0.6729550639751025</v>
       </c>
       <c r="K20">
-        <v>0.4848022948717627</v>
+        <v>0.484802294871848</v>
       </c>
       <c r="L20">
-        <v>1.180904194683905</v>
+        <v>1.180904194683912</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.256791999226664</v>
+        <v>3.256791999226948</v>
       </c>
       <c r="C21">
-        <v>0.4483918241749336</v>
+        <v>0.4483918241758573</v>
       </c>
       <c r="D21">
-        <v>0.5583962676716965</v>
+        <v>0.5583962676712417</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.80223654125581</v>
+        <v>10.80223654125575</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7789199439920296</v>
+        <v>0.778919943992058</v>
       </c>
       <c r="K21">
-        <v>0.5562481189935298</v>
+        <v>0.5562481189935795</v>
       </c>
       <c r="L21">
         <v>1.359887463541043</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.556105887979584</v>
+        <v>3.556105887979527</v>
       </c>
       <c r="C22">
-        <v>0.4897922842184528</v>
+        <v>0.4897922842188791</v>
       </c>
       <c r="D22">
-        <v>0.6014158613818097</v>
+        <v>0.6014158613813265</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.68045036154865</v>
+        <v>11.68045036154876</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0.8514774978952957</v>
       </c>
       <c r="K22">
-        <v>0.6049244174627404</v>
+        <v>0.604924417462712</v>
       </c>
       <c r="L22">
-        <v>1.482011012091377</v>
+        <v>1.482011012091434</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.395000124439264</v>
+        <v>3.395000124439093</v>
       </c>
       <c r="C23">
-        <v>0.4674705418411804</v>
+        <v>0.4674705418406688</v>
       </c>
       <c r="D23">
-        <v>0.5782782707554759</v>
+        <v>0.5782782707557317</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.812410507970327</v>
+        <v>0.8124105079703199</v>
       </c>
       <c r="K23">
-        <v>0.5787408237400982</v>
+        <v>0.57874082374002</v>
       </c>
       <c r="L23">
-        <v>1.416300886630125</v>
+        <v>1.41630088663014</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.811962643210222</v>
+        <v>2.811962643210109</v>
       </c>
       <c r="C24">
-        <v>0.3874026743717707</v>
+        <v>0.3874026743713159</v>
       </c>
       <c r="D24">
         <v>0.4941848875590722</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.489115154336389</v>
+        <v>9.489115154336417</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6712707989485338</v>
+        <v>0.6712707989485622</v>
       </c>
       <c r="K24">
-        <v>0.4836633284688716</v>
+        <v>0.483663328468765</v>
       </c>
       <c r="L24">
-        <v>1.178053468102291</v>
+        <v>1.178053468102334</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.226382816697651</v>
+        <v>2.226382816697878</v>
       </c>
       <c r="C25">
-        <v>0.3079683785806537</v>
+        <v>0.3079683785811085</v>
       </c>
       <c r="D25">
-        <v>0.409069185201048</v>
+        <v>0.4090691852008348</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.745282676270421</v>
+        <v>7.745282676270392</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5298524917170653</v>
+        <v>0.5298524917171363</v>
       </c>
       <c r="K25">
-        <v>0.3876662466658729</v>
+        <v>0.3876662466658587</v>
       </c>
       <c r="L25">
-        <v>0.9380744800642873</v>
+        <v>0.9380744800643015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.82085917519754</v>
+        <v>1.820859175197768</v>
       </c>
       <c r="C2">
-        <v>0.2533924394845712</v>
+        <v>0.2533924394850828</v>
       </c>
       <c r="D2">
-        <v>0.3496355729521952</v>
+        <v>0.3496355729519536</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.52661700879591</v>
+        <v>6.526617008795938</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4320699170801419</v>
+        <v>0.4320699170801063</v>
       </c>
       <c r="K2">
-        <v>0.3208847526550471</v>
+        <v>0.320884752655104</v>
       </c>
       <c r="L2">
-        <v>0.7714814605295288</v>
+        <v>0.7714814605295004</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>1.557479013757671</v>
       </c>
       <c r="C3">
-        <v>0.2180558493011802</v>
+        <v>0.2180558493009812</v>
       </c>
       <c r="D3">
-        <v>0.310754506644372</v>
+        <v>0.3107545066446704</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.729686093532592</v>
+        <v>5.729686093532621</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3686027993681193</v>
+        <v>0.3686027993681478</v>
       </c>
       <c r="K3">
-        <v>0.2773739162854696</v>
+        <v>0.2773739162855122</v>
       </c>
       <c r="L3">
-        <v>0.6631051233440886</v>
+        <v>0.6631051233441028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.400168533461567</v>
+        <v>1.400168533461851</v>
       </c>
       <c r="C4">
-        <v>0.1969599115503513</v>
+        <v>0.1969599115497118</v>
       </c>
       <c r="D4">
-        <v>0.2873996851419633</v>
+        <v>0.2873996851418781</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.251416877622745</v>
+        <v>5.251416877622802</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3307007987805548</v>
+        <v>0.3307007987805477</v>
       </c>
       <c r="K4">
-        <v>0.2513318549958825</v>
+        <v>0.2513318549959038</v>
       </c>
       <c r="L4">
-        <v>0.5983074758586682</v>
+        <v>0.5983074758586611</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.337009532510905</v>
+        <v>1.337009532511104</v>
       </c>
       <c r="C5">
-        <v>0.1884866459112402</v>
+        <v>0.1884866459111976</v>
       </c>
       <c r="D5">
-        <v>0.2779903032785569</v>
+        <v>0.2779903032785143</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.058872397451012</v>
+        <v>5.058872397451069</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0.3154828122079891</v>
       </c>
       <c r="K5">
-        <v>0.2408643060815763</v>
+        <v>0.2408643060815692</v>
       </c>
       <c r="L5">
-        <v>0.5722774404384552</v>
+        <v>0.5722774404384836</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.326574792628037</v>
+        <v>1.326574792628094</v>
       </c>
       <c r="C6">
-        <v>0.1870863796263933</v>
+        <v>0.1870863796267344</v>
       </c>
       <c r="D6">
-        <v>0.2764337875294132</v>
+        <v>0.2764337875292426</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.027031146663205</v>
+        <v>5.027031146663177</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3129685000146907</v>
+        <v>0.3129685000147191</v>
       </c>
       <c r="K6">
-        <v>0.2391342527995448</v>
+        <v>0.2391342527994809</v>
       </c>
       <c r="L6">
-        <v>0.5679761278085351</v>
+        <v>0.567976127808528</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.39931311826507</v>
+        <v>1.399313118265155</v>
       </c>
       <c r="C7">
-        <v>0.1968451722118942</v>
+        <v>0.1968451722121785</v>
       </c>
       <c r="D7">
-        <v>0.2872723780081259</v>
+        <v>0.2872723780078985</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.248811152354989</v>
+        <v>5.248811152355046</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3304946937997641</v>
+        <v>0.3304946937997926</v>
       </c>
       <c r="K7">
-        <v>0.2511901303115565</v>
+        <v>0.2511901303115707</v>
       </c>
       <c r="L7">
-        <v>0.597954984090677</v>
+        <v>0.5979549840906557</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.729028024109311</v>
+        <v>1.72902802410934</v>
       </c>
       <c r="C8">
-        <v>0.2410659931885988</v>
+        <v>0.2410659931881582</v>
       </c>
       <c r="D8">
         <v>0.3361075231908472</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.249271630800536</v>
+        <v>6.249271630800507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.40993882589094</v>
+        <v>0.4099388258909329</v>
       </c>
       <c r="K8">
-        <v>0.3057266841050534</v>
+        <v>0.3057266841050605</v>
       </c>
       <c r="L8">
         <v>0.7337104502953053</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.41896972851066</v>
+        <v>2.41896972851049</v>
       </c>
       <c r="C9">
-        <v>0.333998600328357</v>
+        <v>0.3339986003283713</v>
       </c>
       <c r="D9">
-        <v>0.4371446662069474</v>
+        <v>0.4371446662069758</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.320787244470381</v>
+        <v>8.320787244470296</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.576329830617297</v>
+        <v>0.5763298306172473</v>
       </c>
       <c r="K9">
-        <v>0.4192942143956842</v>
+        <v>0.4192942143956984</v>
       </c>
       <c r="L9">
-        <v>1.017075469151116</v>
+        <v>1.017075469151095</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.966162871030235</v>
+        <v>2.966162871030406</v>
       </c>
       <c r="C10">
-        <v>0.4084753460840602</v>
+        <v>0.4084753460845292</v>
       </c>
       <c r="D10">
         <v>0.5164834515877317</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.945404327249321</v>
+        <v>9.945404327249292</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.708563785102946</v>
+        <v>0.7085637851029247</v>
       </c>
       <c r="K10">
-        <v>0.5088578473667837</v>
+        <v>0.5088578473667198</v>
       </c>
       <c r="L10">
-        <v>1.241131838371984</v>
+        <v>1.24113183837197</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.227701415609488</v>
+        <v>3.227701415609886</v>
       </c>
       <c r="C11">
-        <v>0.4443841569840146</v>
+        <v>0.4443841569839577</v>
       </c>
       <c r="D11">
-        <v>0.5542074523797282</v>
+        <v>0.5542074523796998</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.71665523605219</v>
+        <v>10.71665523605236</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.771873470136299</v>
+        <v>0.7718734701363843</v>
       </c>
       <c r="K11">
-        <v>0.5515101803209035</v>
+        <v>0.5515101803209248</v>
       </c>
       <c r="L11">
-        <v>1.348008358902234</v>
+        <v>1.348008358902248</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>3.328953288896855</v>
       </c>
       <c r="C12">
-        <v>0.4583452239963464</v>
+        <v>0.4583452239959342</v>
       </c>
       <c r="D12">
-        <v>0.5687809272232016</v>
+        <v>0.5687809272231164</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.0143526743671</v>
+        <v>11.01435267436682</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.796403339649828</v>
+        <v>0.7964033396498351</v>
       </c>
       <c r="K12">
-        <v>0.5679955341312919</v>
+        <v>0.5679955341312208</v>
       </c>
       <c r="L12">
-        <v>1.389346955669524</v>
+        <v>1.389346955669538</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.307041259971754</v>
+        <v>3.307041259971868</v>
       </c>
       <c r="C13">
-        <v>0.4553210056875798</v>
+        <v>0.4553210056876509</v>
       </c>
       <c r="D13">
-        <v>0.5656284868261992</v>
+        <v>0.5656284868258297</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.94996910520035</v>
+        <v>10.94996910520013</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.791093822323468</v>
+        <v>0.7910938223234325</v>
       </c>
       <c r="K13">
-        <v>0.5644292017622803</v>
+        <v>0.5644292017622945</v>
       </c>
       <c r="L13">
-        <v>1.380402606087273</v>
+        <v>1.380402606087245</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.235984551386252</v>
+        <v>3.235984551386082</v>
       </c>
       <c r="C14">
-        <v>0.4455250008514611</v>
+        <v>0.4455250008514469</v>
       </c>
       <c r="D14">
-        <v>0.5554003014342186</v>
+        <v>0.5554003014339912</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.74102743780674</v>
+        <v>10.74102743780679</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7738797584940755</v>
+        <v>0.7738797584940542</v>
       </c>
       <c r="K14">
-        <v>0.5528593688673524</v>
+        <v>0.5528593688673737</v>
       </c>
       <c r="L14">
-        <v>1.351390943732994</v>
+        <v>1.351390943733037</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,10 +909,10 @@
         <v>3.192761626096569</v>
       </c>
       <c r="C15">
-        <v>0.4395743362500468</v>
+        <v>0.4395743362504732</v>
       </c>
       <c r="D15">
-        <v>0.549174538858523</v>
+        <v>0.5491745388587503</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7634114164179238</v>
+        <v>0.7634114164179024</v>
       </c>
       <c r="K15">
-        <v>0.5458179428706558</v>
+        <v>0.5458179428706771</v>
       </c>
       <c r="L15">
         <v>1.333738449933392</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.949356938781364</v>
+        <v>2.949356938781193</v>
       </c>
       <c r="C16">
-        <v>0.4061752255327633</v>
+        <v>0.4061752255327491</v>
       </c>
       <c r="D16">
-        <v>0.5140552930406841</v>
+        <v>0.5140552930402862</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.895731435596304</v>
+        <v>9.89573143559619</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7044981252774818</v>
+        <v>0.7044981252774747</v>
       </c>
       <c r="K16">
-        <v>0.5061136535229522</v>
+        <v>0.5061136535228528</v>
       </c>
       <c r="L16">
-        <v>1.234259411420922</v>
+        <v>1.234259411420936</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.803527855635025</v>
+        <v>2.803527855635139</v>
       </c>
       <c r="C17">
-        <v>0.3862520154776803</v>
+        <v>0.386252015477595</v>
       </c>
       <c r="D17">
-        <v>0.4929638753014558</v>
+        <v>0.492963875301399</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.464121960675584</v>
+        <v>9.464121960675783</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6692315556903736</v>
+        <v>0.6692315556904234</v>
       </c>
       <c r="K17">
         <v>0.4822841725369358</v>
       </c>
       <c r="L17">
-        <v>1.174601677620899</v>
+        <v>1.174601677620885</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.720810572863741</v>
+        <v>2.720810572863513</v>
       </c>
       <c r="C18">
-        <v>0.3749786555423782</v>
+        <v>0.3749786555418808</v>
       </c>
       <c r="D18">
-        <v>0.480982572151305</v>
+        <v>0.4809825721515324</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.218832477923712</v>
+        <v>9.218832477923769</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6492370427457814</v>
+        <v>0.6492370427457459</v>
       </c>
       <c r="K18">
-        <v>0.4687536719569536</v>
+        <v>0.4687536719569465</v>
       </c>
       <c r="L18">
-        <v>1.140743442972344</v>
+        <v>1.140743442972358</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.692992187190441</v>
+        <v>2.692992187189986</v>
       </c>
       <c r="C19">
-        <v>0.3711916796537196</v>
+        <v>0.3711916796536627</v>
       </c>
       <c r="D19">
-        <v>0.4769501870853787</v>
+        <v>0.4769501870853219</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.13626239812973</v>
+        <v>9.136262398129844</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6425142384900653</v>
+        <v>0.6425142384900511</v>
       </c>
       <c r="K19">
-        <v>0.4642010050916667</v>
+        <v>0.4642010050916809</v>
       </c>
       <c r="L19">
-        <v>1.129353582373447</v>
+        <v>1.129353582373483</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.818928937537123</v>
+        <v>2.818928937536839</v>
       </c>
       <c r="C20">
-        <v>0.3883531593829161</v>
+        <v>0.3883531593834277</v>
       </c>
       <c r="D20">
-        <v>0.4951932205420917</v>
+        <v>0.4951932205418927</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.509754362017304</v>
+        <v>9.509754362017162</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6729550639751025</v>
+        <v>0.6729550639751167</v>
       </c>
       <c r="K20">
-        <v>0.484802294871848</v>
+        <v>0.4848022948717627</v>
       </c>
       <c r="L20">
-        <v>1.180904194683912</v>
+        <v>1.180904194683905</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.256791999226948</v>
+        <v>3.256791999226664</v>
       </c>
       <c r="C21">
-        <v>0.4483918241758573</v>
+        <v>0.4483918241749336</v>
       </c>
       <c r="D21">
-        <v>0.5583962676712417</v>
+        <v>0.5583962676716965</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.80223654125575</v>
+        <v>10.80223654125581</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.778919943992058</v>
+        <v>0.7789199439920296</v>
       </c>
       <c r="K21">
-        <v>0.5562481189935795</v>
+        <v>0.5562481189935298</v>
       </c>
       <c r="L21">
         <v>1.359887463541043</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.556105887979527</v>
+        <v>3.556105887979584</v>
       </c>
       <c r="C22">
-        <v>0.4897922842188791</v>
+        <v>0.4897922842184528</v>
       </c>
       <c r="D22">
-        <v>0.6014158613813265</v>
+        <v>0.6014158613818097</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.68045036154876</v>
+        <v>11.68045036154865</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0.8514774978952957</v>
       </c>
       <c r="K22">
-        <v>0.604924417462712</v>
+        <v>0.6049244174627404</v>
       </c>
       <c r="L22">
-        <v>1.482011012091434</v>
+        <v>1.482011012091377</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.395000124439093</v>
+        <v>3.395000124439264</v>
       </c>
       <c r="C23">
-        <v>0.4674705418406688</v>
+        <v>0.4674705418411804</v>
       </c>
       <c r="D23">
-        <v>0.5782782707557317</v>
+        <v>0.5782782707554759</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8124105079703199</v>
+        <v>0.812410507970327</v>
       </c>
       <c r="K23">
-        <v>0.57874082374002</v>
+        <v>0.5787408237400982</v>
       </c>
       <c r="L23">
-        <v>1.41630088663014</v>
+        <v>1.416300886630125</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.811962643210109</v>
+        <v>2.811962643210222</v>
       </c>
       <c r="C24">
-        <v>0.3874026743713159</v>
+        <v>0.3874026743717707</v>
       </c>
       <c r="D24">
         <v>0.4941848875590722</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.489115154336417</v>
+        <v>9.489115154336389</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6712707989485622</v>
+        <v>0.6712707989485338</v>
       </c>
       <c r="K24">
-        <v>0.483663328468765</v>
+        <v>0.4836633284688716</v>
       </c>
       <c r="L24">
-        <v>1.178053468102334</v>
+        <v>1.178053468102291</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.226382816697878</v>
+        <v>2.226382816697651</v>
       </c>
       <c r="C25">
-        <v>0.3079683785811085</v>
+        <v>0.3079683785806537</v>
       </c>
       <c r="D25">
-        <v>0.4090691852008348</v>
+        <v>0.409069185201048</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.745282676270392</v>
+        <v>7.745282676270421</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5298524917171363</v>
+        <v>0.5298524917170653</v>
       </c>
       <c r="K25">
-        <v>0.3876662466658587</v>
+        <v>0.3876662466658729</v>
       </c>
       <c r="L25">
-        <v>0.9380744800643015</v>
+        <v>0.9380744800642873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.820859175197768</v>
+        <v>1.802101331477616</v>
       </c>
       <c r="C2">
-        <v>0.2533924394850828</v>
+        <v>0.2423595758900632</v>
       </c>
       <c r="D2">
-        <v>0.3496355729519536</v>
+        <v>0.3542045881146834</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.526617008795938</v>
+        <v>6.541360887999247</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007894978627452672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4320699170801063</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.320884752655104</v>
+        <v>0.4253540206208442</v>
       </c>
       <c r="L2">
-        <v>0.7714814605295004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3196957851681361</v>
+      </c>
+      <c r="M2">
+        <v>0.7680309227365001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.557479013757671</v>
+        <v>1.542310328367478</v>
       </c>
       <c r="C3">
-        <v>0.2180558493009812</v>
+        <v>0.2079382967399823</v>
       </c>
       <c r="D3">
-        <v>0.3107545066446704</v>
+        <v>0.3155574602598819</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.729686093532621</v>
+        <v>5.750225944480633</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008000548738422157</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3686027993681478</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2773739162855122</v>
+        <v>0.3629063054099646</v>
       </c>
       <c r="L3">
-        <v>0.6631051233441028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2762611896097127</v>
+      </c>
+      <c r="M3">
+        <v>0.6603962989744545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.400168533461851</v>
+        <v>1.387196250787497</v>
       </c>
       <c r="C4">
-        <v>0.1969599115497118</v>
+        <v>0.1874059576221896</v>
       </c>
       <c r="D4">
-        <v>0.2873996851418781</v>
+        <v>0.2923383397831572</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.251416877622802</v>
+        <v>5.275411167890383</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008066604350687712</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3307007987805477</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2513318549959038</v>
+        <v>0.3256296571278838</v>
       </c>
       <c r="L4">
-        <v>0.5983074758586611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2502589573164897</v>
+      </c>
+      <c r="M4">
+        <v>0.5960421031774743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.337009532511104</v>
+        <v>1.324933033431904</v>
       </c>
       <c r="C5">
-        <v>0.1884866459111976</v>
+        <v>0.1791633504457195</v>
       </c>
       <c r="D5">
-        <v>0.2779903032785143</v>
+        <v>0.282982591021522</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.058872397451069</v>
+        <v>5.084254159040142</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008093865249505226</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3154828122079891</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2408643060815692</v>
+        <v>0.3106670665026385</v>
       </c>
       <c r="L5">
-        <v>0.5722774404384836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2398061182877029</v>
+      </c>
+      <c r="M5">
+        <v>0.5701905658395674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.326574792628094</v>
+        <v>1.314647150408064</v>
       </c>
       <c r="C6">
-        <v>0.1870863796267344</v>
+        <v>0.177801460053189</v>
       </c>
       <c r="D6">
-        <v>0.2764337875292426</v>
+        <v>0.2814348891289455</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.027031146663177</v>
+        <v>5.052642233254005</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008098413477768452</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3129685000147191</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2391342527994809</v>
+        <v>0.3081952150549512</v>
       </c>
       <c r="L6">
-        <v>0.567976127808528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2380784218847154</v>
+      </c>
+      <c r="M6">
+        <v>0.5659187800930994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.399313118265155</v>
+        <v>1.386352910336598</v>
       </c>
       <c r="C7">
-        <v>0.1968451722121785</v>
+        <v>0.1872943243118357</v>
       </c>
       <c r="D7">
-        <v>0.2872723780078985</v>
+        <v>0.2922117623091225</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.248811152355046</v>
+        <v>5.27282422920851</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000806697057331558</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3304946937997926</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2511901303115707</v>
+        <v>0.3254269933847311</v>
       </c>
       <c r="L7">
-        <v>0.5979549840906557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2501174368889707</v>
+      </c>
+      <c r="M7">
+        <v>0.5956920266886172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.72902802410934</v>
+        <v>1.711510927284593</v>
       </c>
       <c r="C8">
-        <v>0.2410659931881582</v>
+        <v>0.2303487790404546</v>
       </c>
       <c r="D8">
-        <v>0.3361075231908472</v>
+        <v>0.3407590624534578</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.249271630800507</v>
+        <v>6.266039504696948</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007931143276460477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4099388258909329</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3057266841050605</v>
+        <v>0.4035749929406407</v>
       </c>
       <c r="L8">
-        <v>0.7337104502953053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3045656082026582</v>
+      </c>
+      <c r="M8">
+        <v>0.7305186580659111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.41896972851049</v>
+        <v>2.39231727156988</v>
       </c>
       <c r="C9">
-        <v>0.3339986003283713</v>
+        <v>0.3209748544722117</v>
       </c>
       <c r="D9">
-        <v>0.4371446662069758</v>
+        <v>0.4411507444663556</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.320787244470296</v>
+        <v>8.322192814038971</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007672930762692533</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5763298306172473</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4192942143956984</v>
+        <v>0.5673815091203949</v>
       </c>
       <c r="L9">
-        <v>1.017075469151095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4178912611542742</v>
+      </c>
+      <c r="M9">
+        <v>1.011923403507296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.966162871030406</v>
+        <v>2.932430207509697</v>
       </c>
       <c r="C10">
-        <v>0.4084753460845292</v>
+        <v>0.393689464715294</v>
       </c>
       <c r="D10">
-        <v>0.5164834515877317</v>
+        <v>0.5199343824772313</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.945404327249292</v>
+        <v>9.934247295710577</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007485488306677723</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7085637851029247</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5088578473667198</v>
+        <v>0.6976235408133249</v>
       </c>
       <c r="L10">
-        <v>1.24113183837197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5072117080627052</v>
+      </c>
+      <c r="M10">
+        <v>1.234377108635059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.227701415609886</v>
+        <v>3.190592788829122</v>
       </c>
       <c r="C11">
-        <v>0.4443841569839577</v>
+        <v>0.428765107516881</v>
       </c>
       <c r="D11">
-        <v>0.5542074523796998</v>
+        <v>0.5573786801947733</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.71665523605236</v>
+        <v>10.6993325306957</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007399966503291046</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7718734701363843</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5515101803209248</v>
+        <v>0.7599865070751548</v>
       </c>
       <c r="L11">
-        <v>1.348008358902248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5497317476991199</v>
+      </c>
+      <c r="M11">
+        <v>1.340465283114128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.328953288896855</v>
+        <v>3.290535566925939</v>
       </c>
       <c r="C12">
-        <v>0.4583452239959342</v>
+        <v>0.4424042542829909</v>
       </c>
       <c r="D12">
-        <v>0.5687809272231164</v>
+        <v>0.5718412599383385</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.01435267436682</v>
+        <v>10.994610930134</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007367469237179667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7964033396498351</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5679955341312208</v>
+        <v>0.7841497692569064</v>
       </c>
       <c r="L12">
-        <v>1.389346955669538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5661630331157781</v>
+      </c>
+      <c r="M12">
+        <v>1.381494111541414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.307041259971868</v>
+        <v>3.268906998161697</v>
       </c>
       <c r="C13">
-        <v>0.4553210056876509</v>
+        <v>0.4394496880641299</v>
       </c>
       <c r="D13">
-        <v>0.5656284868258297</v>
+        <v>0.5687129443632841</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.94996910520013</v>
+        <v>10.93075245607957</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007374474447651681</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7910938223234325</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5644292017622945</v>
+        <v>0.7789196106614398</v>
       </c>
       <c r="L13">
-        <v>1.380402606087245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5626085383503465</v>
+      </c>
+      <c r="M13">
+        <v>1.372617027435837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.235984551386082</v>
+        <v>3.198768895766364</v>
       </c>
       <c r="C14">
-        <v>0.4455250008514469</v>
+        <v>0.4298796079908698</v>
       </c>
       <c r="D14">
-        <v>0.5554003014339912</v>
+        <v>0.5585625127708056</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.74102743780679</v>
+        <v>10.72350753456453</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000739729566550679</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7738797584940542</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5528593688673737</v>
+        <v>0.7619628120613129</v>
       </c>
       <c r="L14">
-        <v>1.351390943733037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5510765734079399</v>
+      </c>
+      <c r="M14">
+        <v>1.343822626621375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.192761626096569</v>
+        <v>3.156104359328253</v>
       </c>
       <c r="C15">
-        <v>0.4395743362504732</v>
+        <v>0.4240664288089704</v>
       </c>
       <c r="D15">
-        <v>0.5491745388587503</v>
+        <v>0.552383691730455</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.61381260135033</v>
+        <v>10.59732037056796</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007411257241417216</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7634114164179024</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5458179428706771</v>
+        <v>0.7516509190899185</v>
       </c>
       <c r="L15">
-        <v>1.333738449933392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5440577957334796</v>
+      </c>
+      <c r="M15">
+        <v>1.326301654780409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.949356938781193</v>
+        <v>2.915841112970895</v>
       </c>
       <c r="C16">
-        <v>0.4061752255327491</v>
+        <v>0.3914430087814651</v>
       </c>
       <c r="D16">
-        <v>0.5140552930402862</v>
+        <v>0.5175238712189127</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.89573143559619</v>
+        <v>9.884966727204386</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007491066115862388</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7044981252774747</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5061136535228528</v>
+        <v>0.693618753846124</v>
       </c>
       <c r="L16">
-        <v>1.234259411420936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5044756561294577</v>
+      </c>
+      <c r="M16">
+        <v>1.227554793407791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.803527855635139</v>
+        <v>2.771894157375527</v>
       </c>
       <c r="C17">
-        <v>0.386252015477595</v>
+        <v>0.3719863842652984</v>
       </c>
       <c r="D17">
-        <v>0.492963875301399</v>
+        <v>0.4965839662490907</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.464121960675783</v>
+        <v>9.456743128479786</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007539911889090678</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6692315556904234</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4822841725369358</v>
+        <v>0.6588808940450193</v>
       </c>
       <c r="L17">
-        <v>1.174601677620885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4807150237505837</v>
+      </c>
+      <c r="M17">
+        <v>1.168329330570621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.720810572863513</v>
+        <v>2.690245432638847</v>
       </c>
       <c r="C18">
-        <v>0.3749786555418808</v>
+        <v>0.3609785577397133</v>
       </c>
       <c r="D18">
-        <v>0.4809825721515324</v>
+        <v>0.4846873304946655</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.218832477923769</v>
+        <v>9.213360085237468</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007567988110008805</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6492370427457459</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4687536719569465</v>
+        <v>0.6391868264113114</v>
       </c>
       <c r="L18">
-        <v>1.140743442972358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4672221468729774</v>
+      </c>
+      <c r="M18">
+        <v>1.134714345275846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.692992187189986</v>
+        <v>2.662786660480776</v>
       </c>
       <c r="C19">
-        <v>0.3711916796536627</v>
+        <v>0.3572810497785213</v>
       </c>
       <c r="D19">
-        <v>0.4769501870853219</v>
+        <v>0.4806832149257048</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.136262398129844</v>
+        <v>9.131428958977835</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000757749312373702</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6425142384900511</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4642010050916809</v>
+        <v>0.6325651800356482</v>
       </c>
       <c r="L19">
-        <v>1.129353582373483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4626819016523669</v>
+      </c>
+      <c r="M19">
+        <v>1.12340599169832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.818928937536839</v>
+        <v>2.787096385564951</v>
       </c>
       <c r="C20">
-        <v>0.3883531593834277</v>
+        <v>0.3740381647646984</v>
       </c>
       <c r="D20">
-        <v>0.4951932205418927</v>
+        <v>0.4987974461252804</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.509754362017162</v>
+        <v>9.502019468355542</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007534714599044823</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6729550639751167</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4848022948717627</v>
+        <v>0.6625485130955582</v>
       </c>
       <c r="L20">
-        <v>1.180904194683905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4832260270069</v>
+      </c>
+      <c r="M20">
+        <v>1.174586405972605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.256791999226664</v>
+        <v>3.219307437750331</v>
       </c>
       <c r="C21">
-        <v>0.4483918241749336</v>
+        <v>0.4326802633866009</v>
       </c>
       <c r="D21">
-        <v>0.5583962676716965</v>
+        <v>0.5615357859023788</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.80223654125581</v>
+        <v>10.78422072925719</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007390596235639387</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7789199439920296</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5562481189935298</v>
+        <v>0.7669276736448012</v>
       </c>
       <c r="L21">
-        <v>1.359887463541043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5544543166659111</v>
+      </c>
+      <c r="M21">
+        <v>1.352255661883632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.556105887979584</v>
+        <v>3.514742836808068</v>
       </c>
       <c r="C22">
-        <v>0.4897922842184528</v>
+        <v>0.4731293103340022</v>
       </c>
       <c r="D22">
-        <v>0.6014158613818097</v>
+        <v>0.6042219276296521</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.68045036154865</v>
+        <v>11.65521127548232</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007295707289681697</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8514774978952957</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6049244174627404</v>
+        <v>0.8384000858110454</v>
       </c>
       <c r="L22">
-        <v>1.482011012091377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6029646963987716</v>
+      </c>
+      <c r="M22">
+        <v>1.473453056433968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.395000124439264</v>
+        <v>3.35572738622102</v>
       </c>
       <c r="C23">
-        <v>0.4674705418411804</v>
+        <v>0.4513196549385441</v>
       </c>
       <c r="D23">
-        <v>0.5782782707554759</v>
+        <v>0.5812654621917943</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.20827845763438</v>
+        <v>11.18694855804756</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007346444256876018</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.812410507970327</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5787408237400982</v>
+        <v>0.7999176405887241</v>
       </c>
       <c r="L23">
-        <v>1.416300886630125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5768721825883105</v>
+      </c>
+      <c r="M23">
+        <v>1.408244510132292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.811962643210222</v>
+        <v>2.780220034461991</v>
       </c>
       <c r="C24">
-        <v>0.3874026743717707</v>
+        <v>0.3731100052658007</v>
       </c>
       <c r="D24">
-        <v>0.4941848875590722</v>
+        <v>0.4977962933954245</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.489115154336389</v>
+        <v>9.481541359727913</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007537064306605166</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6712707989485338</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4836633284688716</v>
+        <v>0.6608895263852119</v>
       </c>
       <c r="L24">
-        <v>1.178053468102291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4820902851786997</v>
+      </c>
+      <c r="M24">
+        <v>1.17175623978563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.226382816697651</v>
+        <v>2.202245354395643</v>
       </c>
       <c r="C25">
-        <v>0.3079683785806537</v>
+        <v>0.2955757210398531</v>
       </c>
       <c r="D25">
-        <v>0.409069185201048</v>
+        <v>0.4132613975809534</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.745282676270421</v>
+        <v>7.751019429441527</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007742166172488982</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5298524917170653</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3876662466658729</v>
+        <v>0.5216139778594453</v>
       </c>
       <c r="L25">
-        <v>0.9380744800642873</v>
+        <v>0.3863381729498485</v>
+      </c>
+      <c r="M25">
+        <v>0.9334745641396225</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.802101331477616</v>
+        <v>2.536810906304368</v>
       </c>
       <c r="C2">
-        <v>0.2423595758900632</v>
+        <v>0.6060205323649654</v>
       </c>
       <c r="D2">
-        <v>0.3542045881146834</v>
+        <v>0.007904127306267494</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.541360887999247</v>
+        <v>1.369870286552086</v>
       </c>
       <c r="G2">
-        <v>0.0007894978627452672</v>
+        <v>0.0007689052791405994</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4253540206208442</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3196957851681361</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7680309227365001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.823228293574402</v>
+      </c>
+      <c r="N2">
+        <v>0.627827650783118</v>
+      </c>
+      <c r="O2">
+        <v>1.034928599443489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.542310328367478</v>
+        <v>2.191706011211238</v>
       </c>
       <c r="C3">
-        <v>0.2079382967399823</v>
+        <v>0.5266592763434517</v>
       </c>
       <c r="D3">
-        <v>0.3155574602598819</v>
+        <v>0.008928168353943111</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.750225944480633</v>
+        <v>1.2155028805537</v>
       </c>
       <c r="G3">
-        <v>0.0008000548738422157</v>
+        <v>0.0007761662480607453</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3629063054099646</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2762611896097127</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6603962989744545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.399736111397928</v>
+      </c>
+      <c r="N3">
+        <v>0.6685388965466075</v>
+      </c>
+      <c r="O3">
+        <v>0.9228141863423502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.387196250787497</v>
+        <v>1.981967144825688</v>
       </c>
       <c r="C4">
-        <v>0.1874059576221896</v>
+        <v>0.4782947841302985</v>
       </c>
       <c r="D4">
-        <v>0.2923383397831572</v>
+        <v>0.009583511294629143</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.275411167890383</v>
+        <v>1.123952172270677</v>
       </c>
       <c r="G4">
-        <v>0.0008066604350687712</v>
+        <v>0.0007807340189274203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3256296571278838</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2502589573164897</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5960421031774743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.149368920505495</v>
+      </c>
+      <c r="N4">
+        <v>0.695218630781973</v>
+      </c>
+      <c r="O4">
+        <v>0.8565764791954464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.324933033431904</v>
+        <v>1.896952102448807</v>
       </c>
       <c r="C5">
-        <v>0.1791633504457195</v>
+        <v>0.4586586438625488</v>
       </c>
       <c r="D5">
-        <v>0.282982591021522</v>
+        <v>0.009856680835819476</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.084254159040142</v>
+        <v>1.087368022650054</v>
       </c>
       <c r="G5">
-        <v>0.0008093865249505226</v>
+        <v>0.0007826246452528511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3106670665026385</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2398061182877029</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5701905658395674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.049346486507801</v>
+      </c>
+      <c r="N5">
+        <v>0.7064875218820745</v>
+      </c>
+      <c r="O5">
+        <v>0.8301673434897907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.314647150408064</v>
+        <v>1.88286049707898</v>
       </c>
       <c r="C6">
-        <v>0.177801460053189</v>
+        <v>0.4554019543698189</v>
       </c>
       <c r="D6">
-        <v>0.2814348891289455</v>
+        <v>0.009902394344101728</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.052642233254005</v>
+        <v>1.08133450048544</v>
       </c>
       <c r="G6">
-        <v>0.0008098413477768452</v>
+        <v>0.0007829403934844189</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3081952150549512</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2380784218847154</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5659187800930994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.032847676635328</v>
+      </c>
+      <c r="N6">
+        <v>0.7083819478047886</v>
+      </c>
+      <c r="O6">
+        <v>0.8258154095737069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.386352910336598</v>
+        <v>1.980818869165972</v>
       </c>
       <c r="C7">
-        <v>0.1872943243118357</v>
+        <v>0.4780296932390229</v>
       </c>
       <c r="D7">
-        <v>0.2922117623091225</v>
+        <v>0.009587171305745268</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.27282422920851</v>
+        <v>1.123455967970912</v>
       </c>
       <c r="G7">
-        <v>0.000806697057331558</v>
+        <v>0.0007807593961214659</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3254269933847311</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2501174368889707</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5956920266886172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.148012382588945</v>
+      </c>
+      <c r="N7">
+        <v>0.6953690338703353</v>
+      </c>
+      <c r="O7">
+        <v>0.8562180434812134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.711510927284593</v>
+        <v>2.417316342303593</v>
       </c>
       <c r="C8">
-        <v>0.2303487790404546</v>
+        <v>0.578569607566493</v>
       </c>
       <c r="D8">
-        <v>0.3407590624534578</v>
+        <v>0.008251331182954125</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.266039504696948</v>
+        <v>1.315917373708544</v>
       </c>
       <c r="G8">
-        <v>0.0007931143276460477</v>
+        <v>0.0007713872049154171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4035749929406407</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3045656082026582</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7305186580659111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.674926286162261</v>
+      </c>
+      <c r="N8">
+        <v>0.6414987883328465</v>
+      </c>
+      <c r="O8">
+        <v>0.9956869306770386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.39231727156988</v>
+        <v>3.294753354714089</v>
       </c>
       <c r="C9">
-        <v>0.3209748544722117</v>
+        <v>0.7795389608307914</v>
       </c>
       <c r="D9">
-        <v>0.4411507444663556</v>
+        <v>0.005873196470145947</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.322192814038971</v>
+        <v>1.723500922537255</v>
       </c>
       <c r="G9">
-        <v>0.0007672930762692533</v>
+        <v>0.0007537902323122394</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5673815091203949</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4178912611542742</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.011923403507296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.808344348331474</v>
+      </c>
+      <c r="N9">
+        <v>0.5505688435322824</v>
+      </c>
+      <c r="O9">
+        <v>1.293424304349188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.932430207509697</v>
+        <v>3.959272592843149</v>
       </c>
       <c r="C10">
-        <v>0.393689464715294</v>
+        <v>0.9309385149361731</v>
       </c>
       <c r="D10">
-        <v>0.5199343824772313</v>
+        <v>0.004325253785913363</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.934247295710577</v>
+        <v>2.048604101810696</v>
       </c>
       <c r="G10">
-        <v>0.0007485488306677723</v>
+        <v>0.0007411954641332108</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6976235408133249</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5072117080627052</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.234377108635059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.744346015893186</v>
+      </c>
+      <c r="N10">
+        <v>0.4949345021342992</v>
+      </c>
+      <c r="O10">
+        <v>1.532737356412881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.190592788829122</v>
+        <v>4.267622457195728</v>
       </c>
       <c r="C11">
-        <v>0.428765107516881</v>
+        <v>1.000982154302164</v>
       </c>
       <c r="D11">
-        <v>0.5573786801947733</v>
+        <v>0.00367960283870411</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.6993325306957</v>
+        <v>2.204032225940168</v>
       </c>
       <c r="G11">
-        <v>0.0007399966503291046</v>
+        <v>0.0007354981419802864</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7599865070751548</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5497317476991199</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.340465283114128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.20600532457884</v>
+      </c>
+      <c r="N11">
+        <v>0.4726617816409302</v>
+      </c>
+      <c r="O11">
+        <v>1.647640774120845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.290535566925939</v>
+        <v>4.385421513745655</v>
       </c>
       <c r="C12">
-        <v>0.4424042542829909</v>
+        <v>1.027706795272394</v>
       </c>
       <c r="D12">
-        <v>0.5718412599383385</v>
+        <v>0.00344519189674708</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.994610930134</v>
+        <v>2.264171817240737</v>
       </c>
       <c r="G12">
-        <v>0.0007367469237179667</v>
+        <v>0.0007333410866871997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7841497692569064</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5661630331157781</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.381494111541414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.387566005303128</v>
+      </c>
+      <c r="N12">
+        <v>0.4647280806025549</v>
+      </c>
+      <c r="O12">
+        <v>1.692179972158769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.268906998161697</v>
+        <v>4.360002597429855</v>
       </c>
       <c r="C13">
-        <v>0.4394496880641299</v>
+        <v>1.02194169937161</v>
       </c>
       <c r="D13">
-        <v>0.5687129443632841</v>
+        <v>0.003495197096958724</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.93075245607957</v>
+        <v>2.251159076955474</v>
       </c>
       <c r="G13">
-        <v>0.0007374474447651681</v>
+        <v>0.0007338057075186501</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7789196106614398</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5626085383503465</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.372617027435837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.348132939172558</v>
+      </c>
+      <c r="N13">
+        <v>0.4664133216617969</v>
+      </c>
+      <c r="O13">
+        <v>1.682539075898134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.198768895766364</v>
+        <v>4.277292135977348</v>
       </c>
       <c r="C14">
-        <v>0.4298796079908698</v>
+        <v>1.00317659100881</v>
       </c>
       <c r="D14">
-        <v>0.5585625127708056</v>
+        <v>0.003660104631956596</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.72350753456453</v>
+        <v>2.208952974259333</v>
       </c>
       <c r="G14">
-        <v>0.000739729566550679</v>
+        <v>0.0007353206995769478</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7619628120613129</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5510765734079399</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.343822626621375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.220796397265005</v>
+      </c>
+      <c r="N14">
+        <v>0.4719986263951839</v>
+      </c>
+      <c r="O14">
+        <v>1.651283419501439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.156104359328253</v>
+        <v>4.226769376883851</v>
       </c>
       <c r="C15">
-        <v>0.4240664288089704</v>
+        <v>0.9917095532342728</v>
       </c>
       <c r="D15">
-        <v>0.552383691730455</v>
+        <v>0.00376248470457774</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.59732037056796</v>
+        <v>2.183274046384597</v>
       </c>
       <c r="G15">
-        <v>0.0007411257241417216</v>
+        <v>0.0007362485856578987</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7516509190899185</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5440577957334796</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.326301654780409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.143732706107002</v>
+      </c>
+      <c r="N15">
+        <v>0.4754870907472508</v>
+      </c>
+      <c r="O15">
+        <v>1.632277525505032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.915841112970895</v>
+        <v>3.9392565385225</v>
       </c>
       <c r="C16">
-        <v>0.3914430087814651</v>
+        <v>0.9263872556804813</v>
       </c>
       <c r="D16">
-        <v>0.5175238712189127</v>
+        <v>0.00436875999563463</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.884966727204386</v>
+        <v>2.038614323036171</v>
       </c>
       <c r="G16">
-        <v>0.0007491066115862388</v>
+        <v>0.0007415681040873111</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.693618753846124</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5044756561294577</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.227554793407791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.71502134819238</v>
+      </c>
+      <c r="N16">
+        <v>0.4964563407606235</v>
+      </c>
+      <c r="O16">
+        <v>1.525362620585057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.771894157375527</v>
+        <v>3.764537628043854</v>
       </c>
       <c r="C17">
-        <v>0.3719863842652984</v>
+        <v>0.8866361474154871</v>
       </c>
       <c r="D17">
-        <v>0.4965839662490907</v>
+        <v>0.00475674793069597</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.456743128479786</v>
+        <v>1.951930932696882</v>
       </c>
       <c r="G17">
-        <v>0.0007539911889090678</v>
+        <v>0.0007448369614302363</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6588808940450193</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4807150237505837</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.168329330570621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.462185329894908</v>
+      </c>
+      <c r="N17">
+        <v>0.5101394325279287</v>
+      </c>
+      <c r="O17">
+        <v>1.461424903414766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.690245432638847</v>
+        <v>3.664603175990635</v>
       </c>
       <c r="C18">
-        <v>0.3609785577397133</v>
+        <v>0.8638805006669656</v>
       </c>
       <c r="D18">
-        <v>0.4846873304946655</v>
+        <v>0.004985296634574865</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.213360085237468</v>
+        <v>1.902768620105121</v>
       </c>
       <c r="G18">
-        <v>0.0007567988110008805</v>
+        <v>0.0007467204424597183</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6391868264113114</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4672221468729774</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.134714345275846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.320018529227397</v>
+      </c>
+      <c r="N18">
+        <v>0.5182908301836804</v>
+      </c>
+      <c r="O18">
+        <v>1.42520695616858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.662786660480776</v>
+        <v>3.630858499711337</v>
       </c>
       <c r="C19">
-        <v>0.3572810497785213</v>
+        <v>0.8561934674695806</v>
       </c>
       <c r="D19">
-        <v>0.4806832149257048</v>
+        <v>0.005063559993752853</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.131428958977835</v>
+        <v>1.886237113990674</v>
       </c>
       <c r="G19">
-        <v>0.000757749312373702</v>
+        <v>0.0007473588409681455</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6325651800356482</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4626819016523669</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.12340599169832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.272402325824274</v>
+      </c>
+      <c r="N19">
+        <v>0.5210973102478533</v>
+      </c>
+      <c r="O19">
+        <v>1.413035514483184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.787096385564951</v>
+        <v>3.783077759200637</v>
       </c>
       <c r="C20">
-        <v>0.3740381647646984</v>
+        <v>0.890856304416161</v>
       </c>
       <c r="D20">
-        <v>0.4987974461252804</v>
+        <v>0.004714877417259178</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.502019468355542</v>
+        <v>1.961085203952663</v>
       </c>
       <c r="G20">
-        <v>0.0007534714599044823</v>
+        <v>0.0007444886699100287</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6625485130955582</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4832260270069</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.174586405972605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.488753085427419</v>
+      </c>
+      <c r="N20">
+        <v>0.5086533133044071</v>
+      </c>
+      <c r="O20">
+        <v>1.468172439109864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.219307437750331</v>
+        <v>4.301556752479769</v>
       </c>
       <c r="C21">
-        <v>0.4326802633866009</v>
+        <v>1.008682642291348</v>
       </c>
       <c r="D21">
-        <v>0.5615357859023788</v>
+        <v>0.003611378334222148</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.78422072925719</v>
+        <v>2.221313357079438</v>
       </c>
       <c r="G21">
-        <v>0.0007390596235639387</v>
+        <v>0.0007348757375668925</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7669276736448012</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5544543166659111</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.352255661883632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.258000057892588</v>
+      </c>
+      <c r="N21">
+        <v>0.4703439272519603</v>
+      </c>
+      <c r="O21">
+        <v>1.660434646065397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.514742836808068</v>
+        <v>4.646528446382945</v>
       </c>
       <c r="C22">
-        <v>0.4731293103340022</v>
+        <v>1.086875347669348</v>
       </c>
       <c r="D22">
-        <v>0.6042219276296521</v>
+        <v>0.002950041972717865</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.65521127548232</v>
+        <v>2.39898374947478</v>
       </c>
       <c r="G22">
-        <v>0.0007295707289681697</v>
+        <v>0.0007285926866385925</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8384000858110454</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6029646963987716</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.473453056433968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.801199700273457</v>
+      </c>
+      <c r="N22">
+        <v>0.4482640201291943</v>
+      </c>
+      <c r="O22">
+        <v>1.792177951021444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.35572738622102</v>
+        <v>4.46179174746004</v>
       </c>
       <c r="C23">
-        <v>0.4513196549385441</v>
+        <v>1.045022506971492</v>
       </c>
       <c r="D23">
-        <v>0.5812654621917943</v>
+        <v>0.003296868579981072</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.18694855804756</v>
+        <v>2.303386574532283</v>
       </c>
       <c r="G23">
-        <v>0.0007346444256876018</v>
+        <v>0.0007319477843865031</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7999176405887241</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5768721825883105</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.408244510132292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.506909325013837</v>
+      </c>
+      <c r="N23">
+        <v>0.4597530147710742</v>
+      </c>
+      <c r="O23">
+        <v>1.721245706647025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.780220034461991</v>
+        <v>3.774694177643369</v>
       </c>
       <c r="C24">
-        <v>0.3731100052658007</v>
+        <v>0.888948069230338</v>
       </c>
       <c r="D24">
-        <v>0.4977962933954245</v>
+        <v>0.004733790098919222</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.481541359727913</v>
+        <v>1.956944475769703</v>
       </c>
       <c r="G24">
-        <v>0.0007537064306605166</v>
+        <v>0.0007446461192434036</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6608895263852119</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4820902851786997</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.17175623978563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.476731972598287</v>
+      </c>
+      <c r="N24">
+        <v>0.5093243053471994</v>
+      </c>
+      <c r="O24">
+        <v>1.465120205688734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.202245354395643</v>
+        <v>3.054428819728173</v>
       </c>
       <c r="C25">
-        <v>0.2955757210398531</v>
+        <v>0.7246244821689345</v>
       </c>
       <c r="D25">
-        <v>0.4132613975809534</v>
+        <v>0.006485931389480337</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.751019429441527</v>
+        <v>1.609320184982579</v>
       </c>
       <c r="G25">
-        <v>0.0007742166172488982</v>
+        <v>0.0007584803573658377</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5216139778594453</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3863381729498485</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9334745641396225</v>
+        <v>3.487250750703993</v>
+      </c>
+      <c r="N25">
+        <v>0.5733861483555103</v>
+      </c>
+      <c r="O25">
+        <v>1.20973493673516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.536810906304368</v>
+        <v>1.262121024464193</v>
       </c>
       <c r="C2">
-        <v>0.6060205323649654</v>
+        <v>0.1553388981663772</v>
       </c>
       <c r="D2">
-        <v>0.007904127306267494</v>
+        <v>0.007496261392446968</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.369870286552086</v>
+        <v>1.962356815663284</v>
       </c>
       <c r="G2">
-        <v>0.0007689052791405994</v>
+        <v>0.0008590470209297891</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.192286384731673</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06416602094870605</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.289375675532369</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1878515178595634</v>
       </c>
       <c r="M2">
-        <v>2.823228293574402</v>
+        <v>0.2700612274731604</v>
       </c>
       <c r="N2">
-        <v>0.627827650783118</v>
+        <v>2.034767024228572</v>
       </c>
       <c r="O2">
-        <v>1.034928599443489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.191706011211238</v>
+        <v>1.11932984763456</v>
       </c>
       <c r="C3">
-        <v>0.5266592763434517</v>
+        <v>0.1343552780449215</v>
       </c>
       <c r="D3">
-        <v>0.008928168353943111</v>
+        <v>0.006527070902837551</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.2155028805537</v>
+        <v>1.903672496380878</v>
       </c>
       <c r="G3">
-        <v>0.0007761662480607453</v>
+        <v>0.0008649363707111461</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.172717452582603</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06495949164854053</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.136165335514619</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.175483690039087</v>
       </c>
       <c r="M3">
-        <v>2.399736111397928</v>
+        <v>0.2430179966918402</v>
       </c>
       <c r="N3">
-        <v>0.6685388965466075</v>
+        <v>2.077593148967551</v>
       </c>
       <c r="O3">
-        <v>0.9228141863423502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.981967144825688</v>
+        <v>1.032944208927148</v>
       </c>
       <c r="C4">
-        <v>0.4782947841302985</v>
+        <v>0.1216455567565902</v>
       </c>
       <c r="D4">
-        <v>0.009583511294629143</v>
+        <v>0.005934107454152127</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.123952172270677</v>
+        <v>1.870221952676246</v>
       </c>
       <c r="G4">
-        <v>0.0007807340189274203</v>
+        <v>0.0008686697923061451</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.162203693437455</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06548028888962421</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.0434457772337</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1680979787532735</v>
       </c>
       <c r="M4">
-        <v>2.149368920505495</v>
+        <v>0.2267051942864384</v>
       </c>
       <c r="N4">
-        <v>0.695218630781973</v>
+        <v>2.105708781953957</v>
       </c>
       <c r="O4">
-        <v>0.8565764791954464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.896952102448807</v>
+        <v>0.9980369993079421</v>
       </c>
       <c r="C5">
-        <v>0.4586586438625488</v>
+        <v>0.1165044756689326</v>
       </c>
       <c r="D5">
-        <v>0.009856680835819476</v>
+        <v>0.005692893514947173</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.087368022650054</v>
+        <v>1.857208306065615</v>
       </c>
       <c r="G5">
-        <v>0.0007826246452528511</v>
+        <v>0.0008702213641207279</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.158280330199659</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06570089846695204</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.005969336169159</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1651377270065879</v>
       </c>
       <c r="M5">
-        <v>2.049346486507801</v>
+        <v>0.2201254103288477</v>
       </c>
       <c r="N5">
-        <v>0.7064875218820745</v>
+        <v>2.117611455347784</v>
       </c>
       <c r="O5">
-        <v>0.8301673434897907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.88286049707898</v>
+        <v>0.9922577411629732</v>
       </c>
       <c r="C6">
-        <v>0.4554019543698189</v>
+        <v>0.115652955330745</v>
       </c>
       <c r="D6">
-        <v>0.009902394344101728</v>
+        <v>0.005652862719603746</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.08133450048544</v>
+        <v>1.855083823171128</v>
       </c>
       <c r="G6">
-        <v>0.0007829403934844189</v>
+        <v>0.0008704808427082729</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.15765020267915</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0657380347358627</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9997640632171283</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1646490877241789</v>
       </c>
       <c r="M6">
-        <v>2.032847676635328</v>
+        <v>0.2190367814891729</v>
       </c>
       <c r="N6">
-        <v>0.7083819478047886</v>
+        <v>2.119614434285786</v>
       </c>
       <c r="O6">
-        <v>0.8258154095737069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.980818869165972</v>
+        <v>1.032472277380123</v>
       </c>
       <c r="C7">
-        <v>0.4780296932390229</v>
+        <v>0.1215760746750192</v>
       </c>
       <c r="D7">
-        <v>0.009587171305745268</v>
+        <v>0.005930852780746676</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.123455967970912</v>
+        <v>1.870043985225479</v>
       </c>
       <c r="G7">
-        <v>0.0007807593961214659</v>
+        <v>0.0008686905943340317</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.162149340704609</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06548323026343361</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.042939153176093</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1680578590604469</v>
       </c>
       <c r="M7">
-        <v>2.148012382588945</v>
+        <v>0.2266161895603176</v>
       </c>
       <c r="N7">
-        <v>0.6953690338703353</v>
+        <v>2.105867518258606</v>
       </c>
       <c r="O7">
-        <v>0.8562180434812134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.417316342303593</v>
+        <v>1.212601467451719</v>
       </c>
       <c r="C8">
-        <v>0.578569607566493</v>
+        <v>0.1480640823133541</v>
       </c>
       <c r="D8">
-        <v>0.008251331182954125</v>
+        <v>0.007161572855700626</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.315917373708544</v>
+        <v>1.941567015694332</v>
       </c>
       <c r="G8">
-        <v>0.0007713872049154171</v>
+        <v>0.0008610537281789968</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.185217085235557</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06443259234743159</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.236247877682104</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1835421010876317</v>
       </c>
       <c r="M8">
-        <v>2.674926286162261</v>
+        <v>0.260672680929094</v>
       </c>
       <c r="N8">
-        <v>0.6414987883328465</v>
+        <v>2.049147992703354</v>
       </c>
       <c r="O8">
-        <v>0.9956869306770386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.294753354714089</v>
+        <v>1.577448708240667</v>
       </c>
       <c r="C9">
-        <v>0.7795389608307914</v>
+        <v>0.2016637033552939</v>
       </c>
       <c r="D9">
-        <v>0.005873196470145947</v>
+        <v>0.009597693446607991</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.723500922537255</v>
+        <v>2.103839470063278</v>
       </c>
       <c r="G9">
-        <v>0.0007537902323122394</v>
+        <v>0.000846976732824595</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.243169216710747</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.06264225018457914</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.627642587463015</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2156981971003091</v>
       </c>
       <c r="M9">
-        <v>3.808344348331474</v>
+        <v>0.3300452566600569</v>
       </c>
       <c r="N9">
-        <v>0.5505688435322824</v>
+        <v>1.952961352586001</v>
       </c>
       <c r="O9">
-        <v>1.293424304349188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.959272592843149</v>
+        <v>1.854685646880654</v>
       </c>
       <c r="C10">
-        <v>0.9309385149361731</v>
+        <v>0.2424685698247515</v>
       </c>
       <c r="D10">
-        <v>0.004325253785913363</v>
+        <v>0.01141084945641069</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.048604101810696</v>
+        <v>2.238787145014641</v>
       </c>
       <c r="G10">
-        <v>0.0007411954641332108</v>
+        <v>0.0008371343472632908</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.294705137884193</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06149643112601311</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.925113399927426</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2406264581340167</v>
       </c>
       <c r="M10">
-        <v>4.744346015893186</v>
+        <v>0.3830027913897496</v>
       </c>
       <c r="N10">
-        <v>0.4949345021342992</v>
+        <v>1.892357776537935</v>
       </c>
       <c r="O10">
-        <v>1.532737356412881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.267622457195728</v>
+        <v>1.983314567093487</v>
       </c>
       <c r="C11">
-        <v>1.000982154302164</v>
+        <v>0.2614432352862082</v>
       </c>
       <c r="D11">
-        <v>0.00367960283870411</v>
+        <v>0.01224327913484657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.204032225940168</v>
+        <v>2.304155088004322</v>
       </c>
       <c r="G11">
-        <v>0.0007354981419802864</v>
+        <v>0.0008327538438218665</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.320389724673674</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06101320144885136</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.063179919977358</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2523012137520766</v>
       </c>
       <c r="M11">
-        <v>5.20600532457884</v>
+        <v>0.4076268172622335</v>
       </c>
       <c r="N11">
-        <v>0.4726617816409302</v>
+        <v>1.867192878783172</v>
       </c>
       <c r="O11">
-        <v>1.647640774120845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.385421513745655</v>
+        <v>2.032430658713167</v>
       </c>
       <c r="C12">
-        <v>1.027706795272394</v>
+        <v>0.268697083091098</v>
       </c>
       <c r="D12">
-        <v>0.00344519189674708</v>
+        <v>0.0125598337582602</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.264171817240737</v>
+        <v>2.329531792972546</v>
       </c>
       <c r="G12">
-        <v>0.0007333410866871997</v>
+        <v>0.0008311079585382623</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.330464938079984</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.06083579437245668</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.115910169449023</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2567749096393186</v>
       </c>
       <c r="M12">
-        <v>5.387566005303128</v>
+        <v>0.4170370620396042</v>
       </c>
       <c r="N12">
-        <v>0.4647280806025549</v>
+        <v>1.858029705900975</v>
       </c>
       <c r="O12">
-        <v>1.692179972158769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.360002597429855</v>
+        <v>2.021833750018232</v>
       </c>
       <c r="C13">
-        <v>1.02194169937161</v>
+        <v>0.2671316313318641</v>
       </c>
       <c r="D13">
-        <v>0.003495197096958724</v>
+        <v>0.01249159472797601</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.251159076955474</v>
+        <v>2.324037883449478</v>
       </c>
       <c r="G13">
-        <v>0.0007338057075186501</v>
+        <v>0.00083146187191766</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.328279085167438</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06087375196704592</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.104532977055186</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2558089973085771</v>
       </c>
       <c r="M13">
-        <v>5.348132939172558</v>
+        <v>0.4150064365419794</v>
       </c>
       <c r="N13">
-        <v>0.4664133216617969</v>
+        <v>1.859986523620492</v>
       </c>
       <c r="O13">
-        <v>1.682539075898134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.277292135977348</v>
+        <v>1.9873469414689</v>
       </c>
       <c r="C14">
-        <v>1.00317659100881</v>
+        <v>0.2620385836124228</v>
       </c>
       <c r="D14">
-        <v>0.003660104631956596</v>
+        <v>0.01226929412001709</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.208952974259333</v>
+        <v>2.306230044764277</v>
       </c>
       <c r="G14">
-        <v>0.0007353206995769478</v>
+        <v>0.0008326181829729479</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.321211461545587</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06099849350002806</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.067508783276423</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2526681831883479</v>
       </c>
       <c r="M14">
-        <v>5.220796397265005</v>
+        <v>0.408399232864106</v>
       </c>
       <c r="N14">
-        <v>0.4719986263951839</v>
+        <v>1.866431554867432</v>
       </c>
       <c r="O14">
-        <v>1.651283419501439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.226769376883851</v>
+        <v>1.966277222278393</v>
       </c>
       <c r="C15">
-        <v>0.9917095532342728</v>
+        <v>0.2589281623424711</v>
       </c>
       <c r="D15">
-        <v>0.00376248470457774</v>
+        <v>0.01213330954549718</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.183274046384597</v>
+        <v>2.295404991132216</v>
       </c>
       <c r="G15">
-        <v>0.0007362485856578987</v>
+        <v>0.0008333281077063217</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.316928627162653</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0610756317808292</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.044890310187611</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2507513521144631</v>
       </c>
       <c r="M15">
-        <v>5.143732706107002</v>
+        <v>0.4043635647070261</v>
       </c>
       <c r="N15">
-        <v>0.4754870907472508</v>
+        <v>1.870427658199418</v>
       </c>
       <c r="O15">
-        <v>1.632277525505032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.9392565385225</v>
+        <v>1.846333827940299</v>
       </c>
       <c r="C16">
-        <v>0.9263872556804813</v>
+        <v>0.2412376000293648</v>
       </c>
       <c r="D16">
-        <v>0.00436875999563463</v>
+        <v>0.0113566209711955</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.038614323036171</v>
+        <v>2.234599535595294</v>
       </c>
       <c r="G16">
-        <v>0.0007415681040873111</v>
+        <v>0.0008374224877641457</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.293073915884335</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06152878583789523</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.916150070677958</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2398706044622685</v>
       </c>
       <c r="M16">
-        <v>4.71502134819238</v>
+        <v>0.3814050348041036</v>
       </c>
       <c r="N16">
-        <v>0.4964563407606235</v>
+        <v>1.894052449246132</v>
       </c>
       <c r="O16">
-        <v>1.525362620585057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.764537628043854</v>
+        <v>1.773427303973705</v>
       </c>
       <c r="C17">
-        <v>0.8866361474154871</v>
+        <v>0.2304969421138026</v>
       </c>
       <c r="D17">
-        <v>0.00475674793069597</v>
+        <v>0.01088225683208321</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.951930932696882</v>
+        <v>2.198351537273624</v>
       </c>
       <c r="G17">
-        <v>0.0007448369614302363</v>
+        <v>0.0008399583685024969</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.279032051733623</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06181659553249474</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.837911322227114</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2332844979200672</v>
       </c>
       <c r="M17">
-        <v>4.462185329894908</v>
+        <v>0.3674634670347956</v>
       </c>
       <c r="N17">
-        <v>0.5101394325279287</v>
+        <v>1.909175242775547</v>
       </c>
       <c r="O17">
-        <v>1.461424903414766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.664603175990635</v>
+        <v>1.731726912370476</v>
       </c>
       <c r="C18">
-        <v>0.8638805006669656</v>
+        <v>0.2243574065281848</v>
       </c>
       <c r="D18">
-        <v>0.004985296634574865</v>
+        <v>0.01061011604497608</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.902768620105121</v>
+        <v>2.177873913788559</v>
       </c>
       <c r="G18">
-        <v>0.0007467204424597183</v>
+        <v>0.000841426120772912</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.271164702585459</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06198570614993315</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.793165471739968</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2295275568822746</v>
       </c>
       <c r="M18">
-        <v>4.320018529227397</v>
+        <v>0.3594942694198622</v>
       </c>
       <c r="N18">
-        <v>0.5182908301836804</v>
+        <v>1.918098411165701</v>
       </c>
       <c r="O18">
-        <v>1.42520695616858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.630858499711337</v>
+        <v>1.717646650330067</v>
       </c>
       <c r="C19">
-        <v>0.8561934674695806</v>
+        <v>0.2222849590044831</v>
       </c>
       <c r="D19">
-        <v>0.005063559993752853</v>
+        <v>0.01051808753354777</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.886237113990674</v>
+        <v>2.17100282504876</v>
       </c>
       <c r="G19">
-        <v>0.0007473588409681455</v>
+        <v>0.0008419246827134427</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.268536097660714</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06204357389830406</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.778057564254027</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2282607487960746</v>
       </c>
       <c r="M19">
-        <v>4.272402325824274</v>
+        <v>0.3568042983224302</v>
       </c>
       <c r="N19">
-        <v>0.5210973102478533</v>
+        <v>1.92115768015708</v>
       </c>
       <c r="O19">
-        <v>1.413035514483184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.783077759200637</v>
+        <v>1.781163840958641</v>
       </c>
       <c r="C20">
-        <v>0.890856304416161</v>
+        <v>0.2316362848778795</v>
       </c>
       <c r="D20">
-        <v>0.004714877417259178</v>
+        <v>0.01093267954868793</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.961085203952663</v>
+        <v>2.20217141850209</v>
       </c>
       <c r="G20">
-        <v>0.0007444886699100287</v>
+        <v>0.0008396874765079764</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.280504998151017</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0617855874009301</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.846213211565924</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2339823378046617</v>
       </c>
       <c r="M20">
-        <v>4.488753085427419</v>
+        <v>0.3689423724294798</v>
       </c>
       <c r="N20">
-        <v>0.5086533133044071</v>
+        <v>1.907541972558349</v>
       </c>
       <c r="O20">
-        <v>1.468172439109864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.301556752479769</v>
+        <v>1.997465118881621</v>
       </c>
       <c r="C21">
-        <v>1.008682642291348</v>
+        <v>0.2635325964816957</v>
       </c>
       <c r="D21">
-        <v>0.003611378334222148</v>
+        <v>0.01233455101641212</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.221313357079438</v>
+        <v>2.311443293635719</v>
       </c>
       <c r="G21">
-        <v>0.0007348757375668925</v>
+        <v>0.0008322782043442024</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.323277696031099</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06096170143332991</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.078371099614372</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2535892471769756</v>
       </c>
       <c r="M21">
-        <v>5.258000057892588</v>
+        <v>0.4103375286136028</v>
       </c>
       <c r="N21">
-        <v>0.4703439272519603</v>
+        <v>1.864528380514216</v>
       </c>
       <c r="O21">
-        <v>1.660434646065397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.646528446382945</v>
+        <v>2.141227723782492</v>
       </c>
       <c r="C22">
-        <v>1.086875347669348</v>
+        <v>0.2847832118818303</v>
       </c>
       <c r="D22">
-        <v>0.002950041972717865</v>
+        <v>0.01325864980182345</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.39898374947478</v>
+        <v>2.386518799243376</v>
       </c>
       <c r="G22">
-        <v>0.0007285926866385925</v>
+        <v>0.0008275105733899592</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.353280689451765</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.06045583895860496</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.232735733289871</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2667132012425952</v>
       </c>
       <c r="M22">
-        <v>5.801199700273457</v>
+        <v>0.4378956911129848</v>
       </c>
       <c r="N22">
-        <v>0.4482640201291943</v>
+        <v>1.838562103748515</v>
       </c>
       <c r="O22">
-        <v>1.792177951021444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.46179174746004</v>
+        <v>2.064263351084378</v>
       </c>
       <c r="C23">
-        <v>1.045022506971492</v>
+        <v>0.2734010498242867</v>
       </c>
       <c r="D23">
-        <v>0.003296868579981072</v>
+        <v>0.01276463191447519</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.303386574532283</v>
+        <v>2.346096625924972</v>
       </c>
       <c r="G23">
-        <v>0.0007319477843865031</v>
+        <v>0.000830048663115237</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.337070583965641</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.06072280388030649</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.150088573195518</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2596787435379468</v>
       </c>
       <c r="M23">
-        <v>5.506909325013837</v>
+        <v>0.4231380917632279</v>
       </c>
       <c r="N23">
-        <v>0.4597530147710742</v>
+        <v>1.852217180345704</v>
       </c>
       <c r="O23">
-        <v>1.721245706647025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.774694177643369</v>
+        <v>1.777665487757901</v>
       </c>
       <c r="C24">
-        <v>0.888948069230338</v>
+        <v>0.2311210784040441</v>
       </c>
       <c r="D24">
-        <v>0.004733790098919222</v>
+        <v>0.01090988165733364</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.956944475769703</v>
+        <v>2.200443326970571</v>
       </c>
       <c r="G24">
-        <v>0.0007446461192434036</v>
+        <v>0.0008398099160132382</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.279838440970138</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0617995948324328</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.842459200441567</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2336667528505245</v>
       </c>
       <c r="M24">
-        <v>4.476731972598287</v>
+        <v>0.3682736167030285</v>
       </c>
       <c r="N24">
-        <v>0.5093243053471994</v>
+        <v>1.908279662665791</v>
       </c>
       <c r="O24">
-        <v>1.465120205688734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054428819728173</v>
+        <v>1.477297214878945</v>
       </c>
       <c r="C25">
-        <v>0.7246244821689345</v>
+        <v>0.1869454441785336</v>
       </c>
       <c r="D25">
-        <v>0.006485931389480337</v>
+        <v>0.008935323615574475</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.609320184982579</v>
+        <v>2.057356594988107</v>
       </c>
       <c r="G25">
-        <v>0.0007584803573658377</v>
+        <v>0.0008506934608225984</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.226011523759098</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06309719635939892</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.520204572165852</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2067865103570981</v>
       </c>
       <c r="M25">
-        <v>3.487250750703993</v>
+        <v>0.3109604882749082</v>
       </c>
       <c r="N25">
-        <v>0.5733861483555103</v>
+        <v>1.977284320865664</v>
       </c>
       <c r="O25">
-        <v>1.20973493673516</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.262121024464193</v>
+        <v>1.357163811744442</v>
       </c>
       <c r="C2">
-        <v>0.1553388981663772</v>
+        <v>0.06271765734092583</v>
       </c>
       <c r="D2">
-        <v>0.007496261392446968</v>
+        <v>0.01862097285227904</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.962356815663284</v>
+        <v>3.640032366702087</v>
       </c>
       <c r="G2">
-        <v>0.0008590470209297891</v>
+        <v>0.002620915803398652</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.192286384731673</v>
+        <v>2.296344833468481</v>
       </c>
       <c r="J2">
-        <v>0.06416602094870605</v>
+        <v>0.1643149148961385</v>
       </c>
       <c r="K2">
-        <v>1.289375675532369</v>
+        <v>1.159734745125633</v>
       </c>
       <c r="L2">
-        <v>0.1878515178595634</v>
+        <v>0.368301654903604</v>
       </c>
       <c r="M2">
-        <v>0.2700612274731604</v>
+        <v>0.3640308269039387</v>
       </c>
       <c r="N2">
-        <v>2.034767024228572</v>
+        <v>3.887144544557628</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.11932984763456</v>
+        <v>1.327593896070084</v>
       </c>
       <c r="C3">
-        <v>0.1343552780449215</v>
+        <v>0.05710098048051293</v>
       </c>
       <c r="D3">
-        <v>0.006527070902837551</v>
+        <v>0.01843714672380159</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.903672496380878</v>
+        <v>3.640752705795734</v>
       </c>
       <c r="G3">
-        <v>0.0008649363707111461</v>
+        <v>0.002624731211801146</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.172717452582603</v>
+        <v>2.300410310924377</v>
       </c>
       <c r="J3">
-        <v>0.06495949164854053</v>
+        <v>0.1648918657895084</v>
       </c>
       <c r="K3">
-        <v>1.136165335514619</v>
+        <v>1.125907901754431</v>
       </c>
       <c r="L3">
-        <v>0.175483690039087</v>
+        <v>0.3670671761061541</v>
       </c>
       <c r="M3">
-        <v>0.2430179966918402</v>
+        <v>0.3590985506017503</v>
       </c>
       <c r="N3">
-        <v>2.077593148967551</v>
+        <v>3.90651228458281</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.032944208927148</v>
+        <v>1.310144512444339</v>
       </c>
       <c r="C4">
-        <v>0.1216455567565902</v>
+        <v>0.05368371984020825</v>
       </c>
       <c r="D4">
-        <v>0.005934107454152127</v>
+        <v>0.01833035663716842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.870221952676246</v>
+        <v>3.642527755172551</v>
       </c>
       <c r="G4">
-        <v>0.0008686697923061451</v>
+        <v>0.002627199957784457</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.162203693437455</v>
+        <v>2.303679067529821</v>
       </c>
       <c r="J4">
-        <v>0.06548028888962421</v>
+        <v>0.1652705442291964</v>
       </c>
       <c r="K4">
-        <v>1.0434457772337</v>
+        <v>1.105778963716205</v>
       </c>
       <c r="L4">
-        <v>0.1680979787532735</v>
+        <v>0.3664500298030759</v>
       </c>
       <c r="M4">
-        <v>0.2267051942864384</v>
+        <v>0.3562439196994447</v>
       </c>
       <c r="N4">
-        <v>2.105708781953957</v>
+        <v>3.919274239014364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9980369993079421</v>
+        <v>1.30321184614121</v>
       </c>
       <c r="C5">
-        <v>0.1165044756689326</v>
+        <v>0.05229899887002887</v>
       </c>
       <c r="D5">
-        <v>0.005692893514947173</v>
+        <v>0.01828838046023584</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.857208306065615</v>
+        <v>3.643586497747066</v>
       </c>
       <c r="G5">
-        <v>0.0008702213641207279</v>
+        <v>0.002628237791056885</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.158280330199659</v>
+        <v>2.305205510935991</v>
       </c>
       <c r="J5">
-        <v>0.06570089846695204</v>
+        <v>0.1654310149011113</v>
       </c>
       <c r="K5">
-        <v>1.005969336169159</v>
+        <v>1.097737663646711</v>
       </c>
       <c r="L5">
-        <v>0.1651377270065879</v>
+        <v>0.3662340324345337</v>
       </c>
       <c r="M5">
-        <v>0.2201254103288477</v>
+        <v>0.3551244396639035</v>
       </c>
       <c r="N5">
-        <v>2.117611455347784</v>
+        <v>3.924693693281242</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9922577411629732</v>
+        <v>1.302071450880732</v>
       </c>
       <c r="C6">
-        <v>0.115652955330745</v>
+        <v>0.05206953893669208</v>
       </c>
       <c r="D6">
-        <v>0.005652862719603746</v>
+        <v>0.01828150383940752</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.855083823171128</v>
+        <v>3.643782566032684</v>
       </c>
       <c r="G6">
-        <v>0.0008704808427082729</v>
+        <v>0.002628412046115081</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.15765020267915</v>
+        <v>2.305470721000908</v>
       </c>
       <c r="J6">
-        <v>0.0657380347358627</v>
+        <v>0.1654580331452546</v>
       </c>
       <c r="K6">
-        <v>0.9997640632171283</v>
+        <v>1.096412167891799</v>
       </c>
       <c r="L6">
-        <v>0.1646490877241789</v>
+        <v>0.3662003124613875</v>
       </c>
       <c r="M6">
-        <v>0.2190367814891729</v>
+        <v>0.3549411995494474</v>
       </c>
       <c r="N6">
-        <v>2.119614434285786</v>
+        <v>3.925606809746405</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.032472277380123</v>
+        <v>1.310050294430567</v>
       </c>
       <c r="C7">
-        <v>0.1215760746750192</v>
+        <v>0.0536650133364418</v>
       </c>
       <c r="D7">
-        <v>0.005930852780746676</v>
+        <v>0.01832978427205845</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.870043985225479</v>
+        <v>3.642540675400696</v>
       </c>
       <c r="G7">
-        <v>0.0008686905943340317</v>
+        <v>0.002627213825292146</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.162149340704609</v>
+        <v>2.303698866390121</v>
       </c>
       <c r="J7">
-        <v>0.06548323026343361</v>
+        <v>0.1652726834488281</v>
       </c>
       <c r="K7">
-        <v>1.042939153176093</v>
+        <v>1.105669862072062</v>
       </c>
       <c r="L7">
-        <v>0.1680578590604469</v>
+        <v>0.3664469729605599</v>
       </c>
       <c r="M7">
-        <v>0.2266161895603176</v>
+        <v>0.356228644501293</v>
       </c>
       <c r="N7">
-        <v>2.105867518258606</v>
+        <v>3.919346441463858</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.212601467451719</v>
+        <v>1.346821664682295</v>
       </c>
       <c r="C8">
-        <v>0.1480640823133541</v>
+        <v>0.06077447438408967</v>
       </c>
       <c r="D8">
-        <v>0.007161572855700626</v>
+        <v>0.01855633526195533</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.941567015694332</v>
+        <v>3.640004275178782</v>
       </c>
       <c r="G8">
-        <v>0.0008610537281789968</v>
+        <v>0.002622205249689759</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.185217085235557</v>
+        <v>2.297586349157903</v>
       </c>
       <c r="J8">
-        <v>0.06443259234743159</v>
+        <v>0.1645087855664915</v>
       </c>
       <c r="K8">
-        <v>1.236247877682104</v>
+        <v>1.14793837088979</v>
       </c>
       <c r="L8">
-        <v>0.1835421010876317</v>
+        <v>0.3678468256948548</v>
       </c>
       <c r="M8">
-        <v>0.260672680929094</v>
+        <v>0.3622941619042521</v>
       </c>
       <c r="N8">
-        <v>2.049147992703354</v>
+        <v>3.893641994316283</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.577448708240667</v>
+        <v>1.424525056529745</v>
       </c>
       <c r="C9">
-        <v>0.2016637033552939</v>
+        <v>0.07496852607511073</v>
       </c>
       <c r="D9">
-        <v>0.009597693446607991</v>
+        <v>0.01904832260094835</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.103839470063278</v>
+        <v>3.645597043255094</v>
       </c>
       <c r="G9">
-        <v>0.000846976732824595</v>
+        <v>0.002613379267756412</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.243169216710747</v>
+        <v>2.291724889108387</v>
       </c>
       <c r="J9">
-        <v>0.06264225018457914</v>
+        <v>0.1632040088226248</v>
       </c>
       <c r="K9">
-        <v>1.627642587463015</v>
+        <v>1.23590674676035</v>
       </c>
       <c r="L9">
-        <v>0.2156981971003091</v>
+        <v>0.37170623343534</v>
       </c>
       <c r="M9">
-        <v>0.3300452566600569</v>
+        <v>0.3755643528385377</v>
       </c>
       <c r="N9">
-        <v>1.952961352586001</v>
+        <v>3.850136450756423</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.854685646880654</v>
+        <v>1.48501619201781</v>
       </c>
       <c r="C10">
-        <v>0.2424685698247515</v>
+        <v>0.08555637250196924</v>
       </c>
       <c r="D10">
-        <v>0.01141084945641069</v>
+        <v>0.01943824263862837</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.238787145014641</v>
+        <v>3.656141697033434</v>
       </c>
       <c r="G10">
-        <v>0.0008371343472632908</v>
+        <v>0.002607495615162639</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.294705137884193</v>
+        <v>2.2911486133886</v>
       </c>
       <c r="J10">
-        <v>0.06149643112601311</v>
+        <v>0.1623623567379671</v>
       </c>
       <c r="K10">
-        <v>1.925113399927426</v>
+        <v>1.303635797544416</v>
       </c>
       <c r="L10">
-        <v>0.2406264581340167</v>
+        <v>0.3752176072948004</v>
       </c>
       <c r="M10">
-        <v>0.3830027913897496</v>
+        <v>0.3861496974176575</v>
       </c>
       <c r="N10">
-        <v>1.892357776537935</v>
+        <v>3.822375788975847</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.983314567093487</v>
+        <v>1.513272789650557</v>
       </c>
       <c r="C11">
-        <v>0.2614432352862082</v>
+        <v>0.09040895694988649</v>
       </c>
       <c r="D11">
-        <v>0.01224327913484657</v>
+        <v>0.01962167843936413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.304155088004322</v>
+        <v>3.662335308522643</v>
       </c>
       <c r="G11">
-        <v>0.0008327538438218665</v>
+        <v>0.002604948109315341</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.320389724673674</v>
+        <v>2.291695786836868</v>
       </c>
       <c r="J11">
-        <v>0.06101320144885136</v>
+        <v>0.1620046910724717</v>
       </c>
       <c r="K11">
-        <v>2.063179919977358</v>
+        <v>1.335121333817256</v>
       </c>
       <c r="L11">
-        <v>0.2523012137520766</v>
+        <v>0.3769611073328036</v>
       </c>
       <c r="M11">
-        <v>0.4076268172622335</v>
+        <v>0.3911462028958681</v>
       </c>
       <c r="N11">
-        <v>1.867192878783172</v>
+        <v>3.810658588247961</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.032430658713167</v>
+        <v>1.524078808906665</v>
       </c>
       <c r="C12">
-        <v>0.268697083091098</v>
+        <v>0.09225177728504264</v>
       </c>
       <c r="D12">
-        <v>0.0125598337582602</v>
+        <v>0.01969200061473231</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.329531792972546</v>
+        <v>3.664881374049131</v>
       </c>
       <c r="G12">
-        <v>0.0008311079585382623</v>
+        <v>0.002604001883463658</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.330464938079984</v>
+        <v>2.292019284495737</v>
       </c>
       <c r="J12">
-        <v>0.06083579437245668</v>
+        <v>0.1618728635652023</v>
       </c>
       <c r="K12">
-        <v>2.115910169449023</v>
+        <v>1.34714108463865</v>
       </c>
       <c r="L12">
-        <v>0.2567749096393186</v>
+        <v>0.3776422733578784</v>
       </c>
       <c r="M12">
-        <v>0.4170370620396042</v>
+        <v>0.393064228663178</v>
       </c>
       <c r="N12">
-        <v>1.858029705900975</v>
+        <v>3.806352594869438</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.021833750018232</v>
+        <v>1.521746837395597</v>
       </c>
       <c r="C13">
-        <v>0.2671316313318641</v>
+        <v>0.09185465844817031</v>
       </c>
       <c r="D13">
-        <v>0.01249159472797601</v>
+        <v>0.01967681746494776</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.324037883449478</v>
+        <v>3.66432411080811</v>
       </c>
       <c r="G13">
-        <v>0.00083146187191766</v>
+        <v>0.002604204850706073</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.328279085167438</v>
+        <v>2.291944442559895</v>
       </c>
       <c r="J13">
-        <v>0.06087375196704592</v>
+        <v>0.161901094488984</v>
       </c>
       <c r="K13">
-        <v>2.104532977055186</v>
+        <v>1.344548112067258</v>
       </c>
       <c r="L13">
-        <v>0.2558089973085771</v>
+        <v>0.3774946419576679</v>
       </c>
       <c r="M13">
-        <v>0.4150064365419794</v>
+        <v>0.3926499945433193</v>
       </c>
       <c r="N13">
-        <v>1.859986523620492</v>
+        <v>3.807274138498087</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.9873469414689</v>
+        <v>1.514159688013763</v>
       </c>
       <c r="C14">
-        <v>0.2620385836124228</v>
+        <v>0.09056046129950346</v>
       </c>
       <c r="D14">
-        <v>0.01226929412001709</v>
+        <v>0.01962744674099071</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.306230044764277</v>
+        <v>3.662540753960457</v>
       </c>
       <c r="G14">
-        <v>0.0008326181829729479</v>
+        <v>0.002604869893388464</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.321211461545587</v>
+        <v>2.291720070937373</v>
       </c>
       <c r="J14">
-        <v>0.06099849350002806</v>
+        <v>0.161993773207568</v>
       </c>
       <c r="K14">
-        <v>2.067508783276423</v>
+        <v>1.336108266059313</v>
       </c>
       <c r="L14">
-        <v>0.2526681831883479</v>
+        <v>0.3770167280342633</v>
       </c>
       <c r="M14">
-        <v>0.408399232864106</v>
+        <v>0.3913034803474886</v>
       </c>
       <c r="N14">
-        <v>1.866431554867432</v>
+        <v>3.810301704904248</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.966277222278393</v>
+        <v>1.50952611436594</v>
       </c>
       <c r="C15">
-        <v>0.2589281623424711</v>
+        <v>0.08976841385410239</v>
       </c>
       <c r="D15">
-        <v>0.01213330954549718</v>
+        <v>0.01959731725527192</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.295404991132216</v>
+        <v>3.661474525545827</v>
       </c>
       <c r="G15">
-        <v>0.0008333281077063217</v>
+        <v>0.002605279652506215</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.316928627162653</v>
+        <v>2.291597779399467</v>
       </c>
       <c r="J15">
-        <v>0.0610756317808292</v>
+        <v>0.1620510117297442</v>
       </c>
       <c r="K15">
-        <v>2.044890310187611</v>
+        <v>1.330951223878458</v>
       </c>
       <c r="L15">
-        <v>0.2507513521144631</v>
+        <v>0.376726716738645</v>
       </c>
       <c r="M15">
-        <v>0.4043635647070261</v>
+        <v>0.3904820791359569</v>
       </c>
       <c r="N15">
-        <v>1.870427658199418</v>
+        <v>3.812173244730189</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.846333827940299</v>
+        <v>1.48318439154022</v>
       </c>
       <c r="C16">
-        <v>0.2412376000293648</v>
+        <v>0.0852399764660845</v>
       </c>
       <c r="D16">
-        <v>0.0113566209711955</v>
+        <v>0.01942637554961024</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.234599535595294</v>
+        <v>3.655765021720327</v>
       </c>
       <c r="G16">
-        <v>0.0008374224877641457</v>
+        <v>0.002607664688596793</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.293073915884335</v>
+        <v>2.291129132672637</v>
       </c>
       <c r="J16">
-        <v>0.06152878583789523</v>
+        <v>0.1623862372228722</v>
       </c>
       <c r="K16">
-        <v>1.916150070677958</v>
+        <v>1.301591711014197</v>
       </c>
       <c r="L16">
-        <v>0.2398706044622685</v>
+        <v>0.3751065999536678</v>
       </c>
       <c r="M16">
-        <v>0.3814050348041036</v>
+        <v>0.3858268016199347</v>
       </c>
       <c r="N16">
-        <v>1.894052449246132</v>
+        <v>3.823159873966318</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.773427303973705</v>
+        <v>1.467213562989343</v>
       </c>
       <c r="C17">
-        <v>0.2304969421138026</v>
+        <v>0.08247121912985733</v>
       </c>
       <c r="D17">
-        <v>0.01088225683208321</v>
+        <v>0.01932305145854585</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.198351537273624</v>
+        <v>3.652620050754322</v>
       </c>
       <c r="G17">
-        <v>0.0008399583685024969</v>
+        <v>0.002609160805612576</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.279032051733623</v>
+        <v>2.291048859214833</v>
       </c>
       <c r="J17">
-        <v>0.06181659553249474</v>
+        <v>0.1625983346002897</v>
       </c>
       <c r="K17">
-        <v>1.837911322227114</v>
+        <v>1.283753378171554</v>
       </c>
       <c r="L17">
-        <v>0.2332844979200672</v>
+        <v>0.3741500905094739</v>
       </c>
       <c r="M17">
-        <v>0.3674634670347956</v>
+        <v>0.3830172756188546</v>
       </c>
       <c r="N17">
-        <v>1.909175242775547</v>
+        <v>3.830133222881415</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.731726912370476</v>
+        <v>1.458097134548893</v>
       </c>
       <c r="C18">
-        <v>0.2243574065281848</v>
+        <v>0.08088209945189817</v>
       </c>
       <c r="D18">
-        <v>0.01061011604497608</v>
+        <v>0.01926419321913997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.177873913788559</v>
+        <v>3.650942629998156</v>
       </c>
       <c r="G18">
-        <v>0.000841426120772912</v>
+        <v>0.00261003347997569</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.271164702585459</v>
+        <v>2.291078870351889</v>
       </c>
       <c r="J18">
-        <v>0.06198570614993315</v>
+        <v>0.1627227006231653</v>
       </c>
       <c r="K18">
-        <v>1.793165471739968</v>
+        <v>1.273556812885914</v>
       </c>
       <c r="L18">
-        <v>0.2295275568822746</v>
+        <v>0.3736136932738248</v>
       </c>
       <c r="M18">
-        <v>0.3594942694198622</v>
+        <v>0.3814183696909126</v>
       </c>
       <c r="N18">
-        <v>1.918098411165701</v>
+        <v>3.834229879815439</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.717646650330067</v>
+        <v>1.455022429141678</v>
       </c>
       <c r="C19">
-        <v>0.2222849590044831</v>
+        <v>0.08034463239305012</v>
       </c>
       <c r="D19">
-        <v>0.01051808753354777</v>
+        <v>0.01924436328646095</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.17100282504876</v>
+        <v>3.650397272060516</v>
       </c>
       <c r="G19">
-        <v>0.0008419246827134427</v>
+        <v>0.002610331041506572</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.268536097660714</v>
+        <v>2.291102118629638</v>
       </c>
       <c r="J19">
-        <v>0.06204357389830406</v>
+        <v>0.1627652167883014</v>
       </c>
       <c r="K19">
-        <v>1.778057564254027</v>
+        <v>1.270115356947002</v>
       </c>
       <c r="L19">
-        <v>0.2282607487960746</v>
+        <v>0.3734344443264774</v>
       </c>
       <c r="M19">
-        <v>0.3568042983224302</v>
+        <v>0.3808799404661372</v>
       </c>
       <c r="N19">
-        <v>1.92115768015708</v>
+        <v>3.835631668273592</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.781163840958641</v>
+        <v>1.468906487585286</v>
       </c>
       <c r="C20">
-        <v>0.2316362848778795</v>
+        <v>0.082765606152023</v>
       </c>
       <c r="D20">
-        <v>0.01093267954868793</v>
+        <v>0.01933399147274173</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.20217141850209</v>
+        <v>3.65294123154284</v>
       </c>
       <c r="G20">
-        <v>0.0008396874765079764</v>
+        <v>0.002609000284889245</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.280504998151017</v>
+        <v>2.291049520494639</v>
       </c>
       <c r="J20">
-        <v>0.0617855874009301</v>
+        <v>0.1625755109397158</v>
       </c>
       <c r="K20">
-        <v>1.846213211565924</v>
+        <v>1.28564572143398</v>
       </c>
       <c r="L20">
-        <v>0.2339823378046617</v>
+        <v>0.3742504888483609</v>
       </c>
       <c r="M20">
-        <v>0.3689423724294798</v>
+        <v>0.3833145895990384</v>
       </c>
       <c r="N20">
-        <v>1.907541972558349</v>
+        <v>3.829382020871847</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.997465118881621</v>
+        <v>1.516385347818414</v>
       </c>
       <c r="C21">
-        <v>0.2635325964816957</v>
+        <v>0.09094045537622719</v>
       </c>
       <c r="D21">
-        <v>0.01233455101641212</v>
+        <v>0.01964192490303418</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.311443293635719</v>
+        <v>3.663059124116558</v>
       </c>
       <c r="G21">
-        <v>0.0008322782043442024</v>
+        <v>0.002604674054083268</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.323277696031099</v>
+        <v>2.291782818773385</v>
       </c>
       <c r="J21">
-        <v>0.06096170143332991</v>
+        <v>0.1619664532675316</v>
       </c>
       <c r="K21">
-        <v>2.078371099614372</v>
+        <v>1.338584626511476</v>
       </c>
       <c r="L21">
-        <v>0.2535892471769756</v>
+        <v>0.3771565352333539</v>
       </c>
       <c r="M21">
-        <v>0.4103375286136028</v>
+        <v>0.3916982804852438</v>
       </c>
       <c r="N21">
-        <v>1.864528380514216</v>
+        <v>3.809408878270787</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.141227723782492</v>
+        <v>1.548032375669891</v>
       </c>
       <c r="C22">
-        <v>0.2847832118818303</v>
+        <v>0.09631383117434211</v>
       </c>
       <c r="D22">
-        <v>0.01325864980182345</v>
+        <v>0.01984817864663668</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.386518799243376</v>
+        <v>3.670841384570508</v>
       </c>
       <c r="G22">
-        <v>0.0008275105733899592</v>
+        <v>0.002601954165320701</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.353280689451765</v>
+        <v>2.292939890019724</v>
       </c>
       <c r="J22">
-        <v>0.06045583895860496</v>
+        <v>0.1615894511107463</v>
       </c>
       <c r="K22">
-        <v>2.232735733289871</v>
+        <v>1.373747735691609</v>
       </c>
       <c r="L22">
-        <v>0.2667132012425952</v>
+        <v>0.3791778258437688</v>
       </c>
       <c r="M22">
-        <v>0.4378956911129848</v>
+        <v>0.3973287638286251</v>
       </c>
       <c r="N22">
-        <v>1.838562103748515</v>
+        <v>3.797119182153637</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.064263351084378</v>
+        <v>1.531085447948101</v>
       </c>
       <c r="C23">
-        <v>0.2734010498242867</v>
+        <v>0.09344313668975701</v>
       </c>
       <c r="D23">
-        <v>0.01276463191447519</v>
+        <v>0.01973764352162632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.346096625924972</v>
+        <v>3.666580882009924</v>
       </c>
       <c r="G23">
-        <v>0.000830048663115237</v>
+        <v>0.002603396009756431</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.337070583965641</v>
+        <v>2.292260346267483</v>
       </c>
       <c r="J23">
-        <v>0.06072280388030649</v>
+        <v>0.1617887418771407</v>
       </c>
       <c r="K23">
-        <v>2.150088573195518</v>
+        <v>1.35492895129525</v>
       </c>
       <c r="L23">
-        <v>0.2596787435379468</v>
+        <v>0.3780878853546596</v>
       </c>
       <c r="M23">
-        <v>0.4231380917632279</v>
+        <v>0.3943098603628243</v>
       </c>
       <c r="N23">
-        <v>1.852217180345704</v>
+        <v>3.803608519828828</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.777665487757901</v>
+        <v>1.46814091258679</v>
       </c>
       <c r="C24">
-        <v>0.2311210784040441</v>
+        <v>0.08263250545049061</v>
       </c>
       <c r="D24">
-        <v>0.01090988165733364</v>
+        <v>0.01932904379667733</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.200443326970571</v>
+        <v>3.652795618665564</v>
       </c>
       <c r="G24">
-        <v>0.0008398099160132382</v>
+        <v>0.002609072817414409</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.279838440970138</v>
+        <v>2.291048984273552</v>
       </c>
       <c r="J24">
-        <v>0.0617995948324328</v>
+        <v>0.1625858219515184</v>
       </c>
       <c r="K24">
-        <v>1.842459200441567</v>
+        <v>1.284790009465695</v>
       </c>
       <c r="L24">
-        <v>0.2336667528505245</v>
+        <v>0.3742050566634276</v>
       </c>
       <c r="M24">
-        <v>0.3682736167030285</v>
+        <v>0.3831801230810896</v>
       </c>
       <c r="N24">
-        <v>1.908279662665791</v>
+        <v>3.829721366452645</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.477297214878945</v>
+        <v>1.402906134713305</v>
       </c>
       <c r="C25">
-        <v>0.1869454441785336</v>
+        <v>0.07110105832022384</v>
       </c>
       <c r="D25">
-        <v>0.008935323615574475</v>
+        <v>0.01891018445476789</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.057356594988107</v>
+        <v>3.642953462876747</v>
       </c>
       <c r="G25">
-        <v>0.0008506934608225984</v>
+        <v>0.002615660972355677</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.226011523759098</v>
+        <v>2.292655244046443</v>
       </c>
       <c r="J25">
-        <v>0.06309719635939892</v>
+        <v>0.1635363853849068</v>
       </c>
       <c r="K25">
-        <v>1.520204572165852</v>
+        <v>1.211564949657799</v>
       </c>
       <c r="L25">
-        <v>0.2067865103570981</v>
+        <v>0.3705432254981318</v>
       </c>
       <c r="M25">
-        <v>0.3109604882749082</v>
+        <v>0.3718274405403434</v>
       </c>
       <c r="N25">
-        <v>1.977284320865664</v>
+        <v>3.861167509497591</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.357163811744442</v>
+        <v>1.26212102446425</v>
       </c>
       <c r="C2">
-        <v>0.06271765734092583</v>
+        <v>0.1553388981665478</v>
       </c>
       <c r="D2">
-        <v>0.01862097285227904</v>
+        <v>0.007496261392610393</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.640032366702087</v>
+        <v>1.962356815663284</v>
       </c>
       <c r="G2">
-        <v>0.002620915803398652</v>
+        <v>0.0008590470208899026</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.296344833468481</v>
+        <v>1.192286384731688</v>
       </c>
       <c r="J2">
-        <v>0.1643149148961385</v>
+        <v>0.06416602094869006</v>
       </c>
       <c r="K2">
-        <v>1.159734745125633</v>
+        <v>1.289375675532341</v>
       </c>
       <c r="L2">
-        <v>0.368301654903604</v>
+        <v>0.1878515178595208</v>
       </c>
       <c r="M2">
-        <v>0.3640308269039387</v>
+        <v>0.2700612274731462</v>
       </c>
       <c r="N2">
-        <v>3.887144544557628</v>
+        <v>2.034767024228586</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.327593896070084</v>
+        <v>1.119329847634617</v>
       </c>
       <c r="C3">
-        <v>0.05710098048051293</v>
+        <v>0.134355278045021</v>
       </c>
       <c r="D3">
-        <v>0.01843714672380159</v>
+        <v>0.006527070903022292</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.640752705795734</v>
+        <v>1.903672496380864</v>
       </c>
       <c r="G3">
-        <v>0.002624731211801146</v>
+        <v>0.0008649363707171505</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.300410310924377</v>
+        <v>1.172717452582582</v>
       </c>
       <c r="J3">
-        <v>0.1648918657895084</v>
+        <v>0.06495949164854764</v>
       </c>
       <c r="K3">
-        <v>1.125907901754431</v>
+        <v>1.13616533551459</v>
       </c>
       <c r="L3">
-        <v>0.3670671761061541</v>
+        <v>0.175483690039151</v>
       </c>
       <c r="M3">
-        <v>0.3590985506017503</v>
+        <v>0.2430179966918473</v>
       </c>
       <c r="N3">
-        <v>3.90651228458281</v>
+        <v>2.077593148967587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.310144512444339</v>
+        <v>1.032944208927177</v>
       </c>
       <c r="C4">
-        <v>0.05368371984020825</v>
+        <v>0.1216455567567323</v>
       </c>
       <c r="D4">
-        <v>0.01833035663716842</v>
+        <v>0.005934107454145021</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.642527755172551</v>
+        <v>1.870221952676246</v>
       </c>
       <c r="G4">
-        <v>0.002627199957784457</v>
+        <v>0.0008686697923417915</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.303679067529821</v>
+        <v>1.162203693437455</v>
       </c>
       <c r="J4">
-        <v>0.1652705442291964</v>
+        <v>0.06548028888968194</v>
       </c>
       <c r="K4">
-        <v>1.105778963716205</v>
+        <v>1.0434457772337</v>
       </c>
       <c r="L4">
-        <v>0.3664500298030759</v>
+        <v>0.168097978753309</v>
       </c>
       <c r="M4">
-        <v>0.3562439196994447</v>
+        <v>0.2267051942864491</v>
       </c>
       <c r="N4">
-        <v>3.919274239014364</v>
+        <v>2.105708781954</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.30321184614121</v>
+        <v>0.9980369993078853</v>
       </c>
       <c r="C5">
-        <v>0.05229899887002887</v>
+        <v>0.1165044756689326</v>
       </c>
       <c r="D5">
-        <v>0.01828838046023584</v>
+        <v>0.005692893514776642</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.643586497747066</v>
+        <v>1.857208306065601</v>
       </c>
       <c r="G5">
-        <v>0.002628237791056885</v>
+        <v>0.0008702213641511288</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.305205510935991</v>
+        <v>1.158280330199631</v>
       </c>
       <c r="J5">
-        <v>0.1654310149011113</v>
+        <v>0.06570089846691562</v>
       </c>
       <c r="K5">
-        <v>1.097737663646711</v>
+        <v>1.005969336169187</v>
       </c>
       <c r="L5">
-        <v>0.3662340324345337</v>
+        <v>0.1651377270066874</v>
       </c>
       <c r="M5">
-        <v>0.3551244396639035</v>
+        <v>0.2201254103288335</v>
       </c>
       <c r="N5">
-        <v>3.924693693281242</v>
+        <v>2.117611455347834</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.302071450880732</v>
+        <v>0.9922577411629447</v>
       </c>
       <c r="C6">
-        <v>0.05206953893669208</v>
+        <v>0.115652955330745</v>
       </c>
       <c r="D6">
-        <v>0.01828150383940752</v>
+        <v>0.005652862719596641</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.643782566032684</v>
+        <v>1.855083823171157</v>
       </c>
       <c r="G6">
-        <v>0.002628412046115081</v>
+        <v>0.0008704808426701719</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.305470721000908</v>
+        <v>1.157650202679164</v>
       </c>
       <c r="J6">
-        <v>0.1654580331452546</v>
+        <v>0.06573803473584761</v>
       </c>
       <c r="K6">
-        <v>1.096412167891799</v>
+        <v>0.9997640632171851</v>
       </c>
       <c r="L6">
-        <v>0.3662003124613875</v>
+        <v>0.1646490877241646</v>
       </c>
       <c r="M6">
-        <v>0.3549411995494474</v>
+        <v>0.2190367814891694</v>
       </c>
       <c r="N6">
-        <v>3.925606809746405</v>
+        <v>2.119614434285779</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.310050294430567</v>
+        <v>1.032472277380151</v>
       </c>
       <c r="C7">
-        <v>0.0536650133364418</v>
+        <v>0.1215760746750334</v>
       </c>
       <c r="D7">
-        <v>0.01832978427205845</v>
+        <v>0.005930852780629436</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.642540675400696</v>
+        <v>1.870043985225479</v>
       </c>
       <c r="G7">
-        <v>0.002627213825292146</v>
+        <v>0.0008686905943344455</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.303698866390121</v>
+        <v>1.162149340704616</v>
       </c>
       <c r="J7">
-        <v>0.1652726834488281</v>
+        <v>0.06548323026343805</v>
       </c>
       <c r="K7">
-        <v>1.105669862072062</v>
+        <v>1.042939153176007</v>
       </c>
       <c r="L7">
-        <v>0.3664469729605599</v>
+        <v>0.1680578590603901</v>
       </c>
       <c r="M7">
-        <v>0.356228644501293</v>
+        <v>0.2266161895603176</v>
       </c>
       <c r="N7">
-        <v>3.919346441463858</v>
+        <v>2.105867518258549</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.346821664682295</v>
+        <v>1.212601467451805</v>
       </c>
       <c r="C8">
-        <v>0.06077447438408967</v>
+        <v>0.148064082313212</v>
       </c>
       <c r="D8">
-        <v>0.01855633526195533</v>
+        <v>0.007161572855810761</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.640004275178782</v>
+        <v>1.941567015694304</v>
       </c>
       <c r="G8">
-        <v>0.002622205249689759</v>
+        <v>0.0008610537282178236</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.297586349157903</v>
+        <v>1.185217085235557</v>
       </c>
       <c r="J8">
-        <v>0.1645087855664915</v>
+        <v>0.06443259234737297</v>
       </c>
       <c r="K8">
-        <v>1.14793837088979</v>
+        <v>1.236247877682189</v>
       </c>
       <c r="L8">
-        <v>0.3678468256948548</v>
+        <v>0.1835421010875891</v>
       </c>
       <c r="M8">
-        <v>0.3622941619042521</v>
+        <v>0.2606726809290834</v>
       </c>
       <c r="N8">
-        <v>3.893641994316283</v>
+        <v>2.049147992703354</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.424525056529745</v>
+        <v>1.577448708240752</v>
       </c>
       <c r="C9">
-        <v>0.07496852607511073</v>
+        <v>0.2016637033554076</v>
       </c>
       <c r="D9">
-        <v>0.01904832260094835</v>
+        <v>0.009597693446725231</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.645597043255094</v>
+        <v>2.103839470063306</v>
       </c>
       <c r="G9">
-        <v>0.002613379267756412</v>
+        <v>0.0008469767328234621</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.291724889108387</v>
+        <v>1.243169216710761</v>
       </c>
       <c r="J9">
-        <v>0.1632040088226248</v>
+        <v>0.06264225018456848</v>
       </c>
       <c r="K9">
-        <v>1.23590674676035</v>
+        <v>1.627642587462987</v>
       </c>
       <c r="L9">
-        <v>0.37170623343534</v>
+        <v>0.215698197100302</v>
       </c>
       <c r="M9">
-        <v>0.3755643528385377</v>
+        <v>0.3300452566600498</v>
       </c>
       <c r="N9">
-        <v>3.850136450756423</v>
+        <v>1.952961352586001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.48501619201781</v>
+        <v>1.854685646880569</v>
       </c>
       <c r="C10">
-        <v>0.08555637250196924</v>
+        <v>0.2424685698248936</v>
       </c>
       <c r="D10">
-        <v>0.01943824263862837</v>
+        <v>0.01141084945636806</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.656141697033434</v>
+        <v>2.238787145014641</v>
       </c>
       <c r="G10">
-        <v>0.002607495615162639</v>
+        <v>0.0008371343472302996</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.2911486133886</v>
+        <v>1.294705137884179</v>
       </c>
       <c r="J10">
-        <v>0.1623623567379671</v>
+        <v>0.06149643112602909</v>
       </c>
       <c r="K10">
-        <v>1.303635797544416</v>
+        <v>1.925113399927511</v>
       </c>
       <c r="L10">
-        <v>0.3752176072948004</v>
+        <v>0.2406264581340025</v>
       </c>
       <c r="M10">
-        <v>0.3861496974176575</v>
+        <v>0.3830027913897638</v>
       </c>
       <c r="N10">
-        <v>3.822375788975847</v>
+        <v>1.892357776537963</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.513272789650557</v>
+        <v>1.983314567093487</v>
       </c>
       <c r="C11">
-        <v>0.09040895694988649</v>
+        <v>0.2614432352864924</v>
       </c>
       <c r="D11">
-        <v>0.01962167843936413</v>
+        <v>0.01224327913486434</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.662335308522643</v>
+        <v>2.304155088004379</v>
       </c>
       <c r="G11">
-        <v>0.002604948109315341</v>
+        <v>0.0008327538437422845</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.291695786836868</v>
+        <v>1.320389724673703</v>
       </c>
       <c r="J11">
-        <v>0.1620046910724717</v>
+        <v>0.06101320144879985</v>
       </c>
       <c r="K11">
-        <v>1.335121333817256</v>
+        <v>2.063179919977387</v>
       </c>
       <c r="L11">
-        <v>0.3769611073328036</v>
+        <v>0.2523012137520766</v>
       </c>
       <c r="M11">
-        <v>0.3911462028958681</v>
+        <v>0.4076268172622406</v>
       </c>
       <c r="N11">
-        <v>3.810658588247961</v>
+        <v>1.867192878783243</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.524078808906665</v>
+        <v>2.032430658713167</v>
       </c>
       <c r="C12">
-        <v>0.09225177728504264</v>
+        <v>0.268697083091098</v>
       </c>
       <c r="D12">
-        <v>0.01969200061473231</v>
+        <v>0.01255983375804703</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.664881374049131</v>
+        <v>2.32953179297256</v>
       </c>
       <c r="G12">
-        <v>0.002604001883463658</v>
+        <v>0.0008311079584810699</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.292019284495737</v>
+        <v>1.330464938080013</v>
       </c>
       <c r="J12">
-        <v>0.1618728635652023</v>
+        <v>0.06083579437254016</v>
       </c>
       <c r="K12">
-        <v>1.34714108463865</v>
+        <v>2.115910169448881</v>
       </c>
       <c r="L12">
-        <v>0.3776422733578784</v>
+        <v>0.2567749096393186</v>
       </c>
       <c r="M12">
-        <v>0.393064228663178</v>
+        <v>0.4170370620396113</v>
       </c>
       <c r="N12">
-        <v>3.806352594869438</v>
+        <v>1.858029705901004</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.521746837395597</v>
+        <v>2.021833750018288</v>
       </c>
       <c r="C13">
-        <v>0.09185465844817031</v>
+        <v>0.2671316313318641</v>
       </c>
       <c r="D13">
-        <v>0.01967681746494776</v>
+        <v>0.01249159472785877</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.66432411080811</v>
+        <v>2.324037883449492</v>
       </c>
       <c r="G13">
-        <v>0.002604204850706073</v>
+        <v>0.0008314618719764688</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.291944442559895</v>
+        <v>1.328279085167466</v>
       </c>
       <c r="J13">
-        <v>0.161901094488984</v>
+        <v>0.0608737519671525</v>
       </c>
       <c r="K13">
-        <v>1.344548112067258</v>
+        <v>2.104532977055186</v>
       </c>
       <c r="L13">
-        <v>0.3774946419576679</v>
+        <v>0.255808997308506</v>
       </c>
       <c r="M13">
-        <v>0.3926499945433193</v>
+        <v>0.4150064365419865</v>
       </c>
       <c r="N13">
-        <v>3.807274138498087</v>
+        <v>1.859986523620506</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.514159688013763</v>
+        <v>1.987346941468786</v>
       </c>
       <c r="C14">
-        <v>0.09056046129950346</v>
+        <v>0.2620385836128207</v>
       </c>
       <c r="D14">
-        <v>0.01962744674099071</v>
+        <v>0.01226929412000999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.662540753960457</v>
+        <v>2.306230044764291</v>
       </c>
       <c r="G14">
-        <v>0.002604869893388464</v>
+        <v>0.000832618183050527</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.291720070937373</v>
+        <v>1.321211461545587</v>
       </c>
       <c r="J14">
-        <v>0.161993773207568</v>
+        <v>0.06099849349996234</v>
       </c>
       <c r="K14">
-        <v>1.336108266059313</v>
+        <v>2.067508783276566</v>
       </c>
       <c r="L14">
-        <v>0.3770167280342633</v>
+        <v>0.2526681831883479</v>
       </c>
       <c r="M14">
-        <v>0.3913034803474886</v>
+        <v>0.408399232864106</v>
       </c>
       <c r="N14">
-        <v>3.810301704904248</v>
+        <v>1.866431554867376</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.50952611436594</v>
+        <v>1.966277222278393</v>
       </c>
       <c r="C15">
-        <v>0.08976841385410239</v>
+        <v>0.2589281623426416</v>
       </c>
       <c r="D15">
-        <v>0.01959731725527192</v>
+        <v>0.01213330954536929</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.661474525545827</v>
+        <v>2.295404991132258</v>
       </c>
       <c r="G15">
-        <v>0.002605279652506215</v>
+        <v>0.0008333281077536257</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.291597779399467</v>
+        <v>1.316928627162724</v>
       </c>
       <c r="J15">
-        <v>0.1620510117297442</v>
+        <v>0.06107563178071373</v>
       </c>
       <c r="K15">
-        <v>1.330951223878458</v>
+        <v>2.044890310187526</v>
       </c>
       <c r="L15">
-        <v>0.376726716738645</v>
+        <v>0.2507513521145057</v>
       </c>
       <c r="M15">
-        <v>0.3904820791359569</v>
+        <v>0.4043635647070332</v>
       </c>
       <c r="N15">
-        <v>3.812173244730189</v>
+        <v>1.870427658199546</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.48318439154022</v>
+        <v>1.846333827940384</v>
       </c>
       <c r="C16">
-        <v>0.0852399764660845</v>
+        <v>0.2412376000293506</v>
       </c>
       <c r="D16">
-        <v>0.01942637554961024</v>
+        <v>0.01135662097107826</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.655765021720327</v>
+        <v>2.234599535595351</v>
       </c>
       <c r="G16">
-        <v>0.002607664688596793</v>
+        <v>0.0008374224877632575</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.291129132672637</v>
+        <v>1.293073915884349</v>
       </c>
       <c r="J16">
-        <v>0.1623862372228722</v>
+        <v>0.06152878583793608</v>
       </c>
       <c r="K16">
-        <v>1.301591711014197</v>
+        <v>1.916150070677958</v>
       </c>
       <c r="L16">
-        <v>0.3751065999536678</v>
+        <v>0.2398706044622543</v>
       </c>
       <c r="M16">
-        <v>0.3858268016199347</v>
+        <v>0.3814050348040965</v>
       </c>
       <c r="N16">
-        <v>3.823159873966318</v>
+        <v>1.894052449246146</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.467213562989343</v>
+        <v>1.773427303973847</v>
       </c>
       <c r="C17">
-        <v>0.08247121912985733</v>
+        <v>0.2304969421136462</v>
       </c>
       <c r="D17">
-        <v>0.01932305145854585</v>
+        <v>0.01088225683195887</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.652620050754322</v>
+        <v>2.198351537273666</v>
       </c>
       <c r="G17">
-        <v>0.002609160805612576</v>
+        <v>0.0008399583684250108</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.291048859214833</v>
+        <v>1.279032051733637</v>
       </c>
       <c r="J17">
-        <v>0.1625983346002897</v>
+        <v>0.0618165955324308</v>
       </c>
       <c r="K17">
-        <v>1.283753378171554</v>
+        <v>1.837911322227058</v>
       </c>
       <c r="L17">
-        <v>0.3741500905094739</v>
+        <v>0.2332844979201241</v>
       </c>
       <c r="M17">
-        <v>0.3830172756188546</v>
+        <v>0.3674634670347814</v>
       </c>
       <c r="N17">
-        <v>3.830133222881415</v>
+        <v>1.909175242775589</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.458097134548893</v>
+        <v>1.731726912370448</v>
       </c>
       <c r="C18">
-        <v>0.08088209945189817</v>
+        <v>0.224357406527858</v>
       </c>
       <c r="D18">
-        <v>0.01926419321913997</v>
+        <v>0.0106101160451928</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.650942629998156</v>
+        <v>2.177873913788574</v>
       </c>
       <c r="G18">
-        <v>0.00261003347997569</v>
+        <v>0.0008414261206978171</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.291078870351889</v>
+        <v>1.271164702585466</v>
       </c>
       <c r="J18">
-        <v>0.1627227006231653</v>
+        <v>0.06198570614989762</v>
       </c>
       <c r="K18">
-        <v>1.273556812885914</v>
+        <v>1.793165471739968</v>
       </c>
       <c r="L18">
-        <v>0.3736136932738248</v>
+        <v>0.229527556882303</v>
       </c>
       <c r="M18">
-        <v>0.3814183696909126</v>
+        <v>0.3594942694198835</v>
       </c>
       <c r="N18">
-        <v>3.834229879815439</v>
+        <v>1.918098411165701</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.455022429141678</v>
+        <v>1.717646650330181</v>
       </c>
       <c r="C19">
-        <v>0.08034463239305012</v>
+        <v>0.2222849590043552</v>
       </c>
       <c r="D19">
-        <v>0.01924436328646095</v>
+        <v>0.01051808753354422</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.650397272060516</v>
+        <v>2.171002825048774</v>
       </c>
       <c r="G19">
-        <v>0.002610331041506572</v>
+        <v>0.0008419246826827503</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.291102118629638</v>
+        <v>1.268536097660729</v>
       </c>
       <c r="J19">
-        <v>0.1627652167883014</v>
+        <v>0.06204357389836623</v>
       </c>
       <c r="K19">
-        <v>1.270115356947002</v>
+        <v>1.778057564254027</v>
       </c>
       <c r="L19">
-        <v>0.3734344443264774</v>
+        <v>0.2282607487960888</v>
       </c>
       <c r="M19">
-        <v>0.3808799404661372</v>
+        <v>0.3568042983224302</v>
       </c>
       <c r="N19">
-        <v>3.835631668273592</v>
+        <v>1.921157680157066</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.468906487585286</v>
+        <v>1.781163840958584</v>
       </c>
       <c r="C20">
-        <v>0.082765606152023</v>
+        <v>0.2316362848777516</v>
       </c>
       <c r="D20">
-        <v>0.01933399147274173</v>
+        <v>0.0109326795485778</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.65294123154284</v>
+        <v>2.202171418502118</v>
       </c>
       <c r="G20">
-        <v>0.002609000284889245</v>
+        <v>0.0008396874764320421</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.291049520494639</v>
+        <v>1.280504998151002</v>
       </c>
       <c r="J20">
-        <v>0.1625755109397158</v>
+        <v>0.0617855874008999</v>
       </c>
       <c r="K20">
-        <v>1.28564572143398</v>
+        <v>1.84621321156601</v>
       </c>
       <c r="L20">
-        <v>0.3742504888483609</v>
+        <v>0.2339823378046617</v>
       </c>
       <c r="M20">
-        <v>0.3833145895990384</v>
+        <v>0.3689423724294727</v>
       </c>
       <c r="N20">
-        <v>3.829382020871847</v>
+        <v>1.907541972558363</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.516385347818414</v>
+        <v>1.997465118881678</v>
       </c>
       <c r="C21">
-        <v>0.09094045537622719</v>
+        <v>0.2635325964814399</v>
       </c>
       <c r="D21">
-        <v>0.01964192490303418</v>
+        <v>0.01233455101651515</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.663059124116558</v>
+        <v>2.311443293635705</v>
       </c>
       <c r="G21">
-        <v>0.002604674054083268</v>
+        <v>0.0008322782043935923</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.291782818773385</v>
+        <v>1.323277696031099</v>
       </c>
       <c r="J21">
-        <v>0.1619664532675316</v>
+        <v>0.06096170143339563</v>
       </c>
       <c r="K21">
-        <v>1.338584626511476</v>
+        <v>2.078371099614543</v>
       </c>
       <c r="L21">
-        <v>0.3771565352333539</v>
+        <v>0.2535892471769472</v>
       </c>
       <c r="M21">
-        <v>0.3916982804852438</v>
+        <v>0.4103375286136028</v>
       </c>
       <c r="N21">
-        <v>3.809408878270787</v>
+        <v>1.864528380514201</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.548032375669891</v>
+        <v>2.141227723782549</v>
       </c>
       <c r="C22">
-        <v>0.09631383117434211</v>
+        <v>0.2847832118816314</v>
       </c>
       <c r="D22">
-        <v>0.01984817864663668</v>
+        <v>0.01325864980203306</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.670841384570508</v>
+        <v>2.386518799243348</v>
       </c>
       <c r="G22">
-        <v>0.002601954165320701</v>
+        <v>0.0008275105734463983</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.292939890019724</v>
+        <v>1.353280689451765</v>
       </c>
       <c r="J22">
-        <v>0.1615894511107463</v>
+        <v>0.06045583895858897</v>
       </c>
       <c r="K22">
-        <v>1.373747735691609</v>
+        <v>2.232735733289815</v>
       </c>
       <c r="L22">
-        <v>0.3791778258437688</v>
+        <v>0.2667132012424815</v>
       </c>
       <c r="M22">
-        <v>0.3973287638286251</v>
+        <v>0.4378956911129919</v>
       </c>
       <c r="N22">
-        <v>3.797119182153637</v>
+        <v>1.838562103748501</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.531085447948101</v>
+        <v>2.064263351084207</v>
       </c>
       <c r="C23">
-        <v>0.09344313668975701</v>
+        <v>0.2734010498241162</v>
       </c>
       <c r="D23">
-        <v>0.01973764352162632</v>
+        <v>0.01276463191448229</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.666580882009924</v>
+        <v>2.346096625924957</v>
       </c>
       <c r="G23">
-        <v>0.002603396009756431</v>
+        <v>0.0008300486631058842</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.292260346267483</v>
+        <v>1.337070583965627</v>
       </c>
       <c r="J23">
-        <v>0.1617887418771407</v>
+        <v>0.0607228038802532</v>
       </c>
       <c r="K23">
-        <v>1.35492895129525</v>
+        <v>2.15008857319549</v>
       </c>
       <c r="L23">
-        <v>0.3780878853546596</v>
+        <v>0.2596787435380037</v>
       </c>
       <c r="M23">
-        <v>0.3943098603628243</v>
+        <v>0.4231380917632279</v>
       </c>
       <c r="N23">
-        <v>3.803608519828828</v>
+        <v>1.852217180345676</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.46814091258679</v>
+        <v>1.777665487757901</v>
       </c>
       <c r="C24">
-        <v>0.08263250545049061</v>
+        <v>0.2311210784038735</v>
       </c>
       <c r="D24">
-        <v>0.01932904379667733</v>
+        <v>0.01090988165723061</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.652795618665564</v>
+        <v>2.200443326970586</v>
       </c>
       <c r="G24">
-        <v>0.002609072817414409</v>
+        <v>0.0008398099160418164</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.291048984273552</v>
+        <v>1.279838440970138</v>
       </c>
       <c r="J24">
-        <v>0.1625858219515184</v>
+        <v>0.06179959483241859</v>
       </c>
       <c r="K24">
-        <v>1.284790009465695</v>
+        <v>1.842459200441567</v>
       </c>
       <c r="L24">
-        <v>0.3742050566634276</v>
+        <v>0.2336667528505245</v>
       </c>
       <c r="M24">
-        <v>0.3831801230810896</v>
+        <v>0.3682736167030356</v>
       </c>
       <c r="N24">
-        <v>3.829721366452645</v>
+        <v>1.908279662665734</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.402906134713305</v>
+        <v>1.477297214879059</v>
       </c>
       <c r="C25">
-        <v>0.07110105832022384</v>
+        <v>0.1869454441786189</v>
       </c>
       <c r="D25">
-        <v>0.01891018445476789</v>
+        <v>0.008935323615446578</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.642953462876747</v>
+        <v>2.057356594988121</v>
       </c>
       <c r="G25">
-        <v>0.002615660972355677</v>
+        <v>0.000850693460821228</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.292655244046443</v>
+        <v>1.226011523759091</v>
       </c>
       <c r="J25">
-        <v>0.1635363853849068</v>
+        <v>0.06309719635942912</v>
       </c>
       <c r="K25">
-        <v>1.211564949657799</v>
+        <v>1.520204572165852</v>
       </c>
       <c r="L25">
-        <v>0.3705432254981318</v>
+        <v>0.2067865103570981</v>
       </c>
       <c r="M25">
-        <v>0.3718274405403434</v>
+        <v>0.3109604882749011</v>
       </c>
       <c r="N25">
-        <v>3.861167509497591</v>
+        <v>1.977284320865593</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.26212102446425</v>
+        <v>1.327756498935145</v>
       </c>
       <c r="C2">
-        <v>0.1553388981665478</v>
+        <v>0.4187722131484009</v>
       </c>
       <c r="D2">
-        <v>0.007496261392610393</v>
+        <v>0.06075058443180836</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.962356815663284</v>
+        <v>0.3492349088624636</v>
       </c>
       <c r="G2">
-        <v>0.0008590470208899026</v>
+        <v>0.2433741298672842</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0009048996014353605</v>
       </c>
       <c r="I2">
-        <v>1.192286384731688</v>
+        <v>0.008909720735728044</v>
       </c>
       <c r="J2">
-        <v>0.06416602094869006</v>
+        <v>0.1988653931217428</v>
       </c>
       <c r="K2">
-        <v>1.289375675532341</v>
+        <v>0.1667948254430343</v>
       </c>
       <c r="L2">
-        <v>0.1878515178595208</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2700612274731462</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.034767024228586</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.558109271162252</v>
+      </c>
+      <c r="P2">
+        <v>0.6779924721657835</v>
+      </c>
+      <c r="Q2">
+        <v>0.8831575930900186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.119329847634617</v>
+        <v>1.162284290597427</v>
       </c>
       <c r="C3">
-        <v>0.134355278045021</v>
+        <v>0.3807329066104472</v>
       </c>
       <c r="D3">
-        <v>0.006527070903022292</v>
+        <v>0.05317971507224684</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.903672496380864</v>
+        <v>0.3185655048051785</v>
       </c>
       <c r="G3">
-        <v>0.0008649363707171505</v>
+        <v>0.2214029254986229</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002273677226050097</v>
       </c>
       <c r="I3">
-        <v>1.172717452582582</v>
+        <v>0.007053532365650206</v>
       </c>
       <c r="J3">
-        <v>0.06495949164854764</v>
+        <v>0.192324632653488</v>
       </c>
       <c r="K3">
-        <v>1.13616533551459</v>
+        <v>0.166243450430791</v>
       </c>
       <c r="L3">
-        <v>0.175483690039151</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2430179966918473</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.077593148967587</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.226409272056515</v>
+      </c>
+      <c r="P3">
+        <v>0.6888836045125331</v>
+      </c>
+      <c r="Q3">
+        <v>0.8226240641323272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.032944208927177</v>
+        <v>1.059986651192219</v>
       </c>
       <c r="C4">
-        <v>0.1216455567567323</v>
+        <v>0.3574362524586121</v>
       </c>
       <c r="D4">
-        <v>0.005934107454145021</v>
+        <v>0.04854101859803706</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.870221952676246</v>
+        <v>0.3000752565341216</v>
       </c>
       <c r="G4">
-        <v>0.0008686697923417915</v>
+        <v>0.2081687999014079</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.124936391740718E-05</v>
       </c>
       <c r="I4">
-        <v>1.162203693437455</v>
+        <v>0.0060126997378811</v>
       </c>
       <c r="J4">
-        <v>0.06548028888968194</v>
+        <v>0.1885089644343623</v>
       </c>
       <c r="K4">
-        <v>1.0434457772337</v>
+        <v>0.1660843431983956</v>
       </c>
       <c r="L4">
-        <v>0.168097978753309</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2267051942864491</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.105708781954</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.023252559773212</v>
+      </c>
+      <c r="P4">
+        <v>0.6960497904704397</v>
+      </c>
+      <c r="Q4">
+        <v>0.7864116602959399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9980369993078853</v>
+        <v>1.017392384989108</v>
       </c>
       <c r="C5">
-        <v>0.1165044756689326</v>
+        <v>0.3484528435333658</v>
       </c>
       <c r="D5">
-        <v>0.005692893514776642</v>
+        <v>0.04669819257709662</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.857208306065601</v>
+        <v>0.2923323347923699</v>
       </c>
       <c r="G5">
-        <v>0.0008702213641511288</v>
+        <v>0.2025525805498205</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.719325251199223E-06</v>
       </c>
       <c r="I5">
-        <v>1.158280330199631</v>
+        <v>0.005662269035703105</v>
       </c>
       <c r="J5">
-        <v>0.06570089846691562</v>
+        <v>0.1868567541528563</v>
       </c>
       <c r="K5">
-        <v>1.005969336169187</v>
+        <v>0.1658462170363268</v>
       </c>
       <c r="L5">
-        <v>0.1651377270066874</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2201254103288335</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.117611455347834</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.940547384881199</v>
+      </c>
+      <c r="P5">
+        <v>0.6992931605223589</v>
+      </c>
+      <c r="Q5">
+        <v>0.7709757787713301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9922577411629447</v>
+        <v>1.009411135960931</v>
       </c>
       <c r="C6">
-        <v>0.115652955330745</v>
+        <v>0.3475732016429589</v>
       </c>
       <c r="D6">
-        <v>0.005652862719596641</v>
+        <v>0.04644802792780922</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.855083823171157</v>
+        <v>0.2906991527663934</v>
       </c>
       <c r="G6">
-        <v>0.0008704808426701719</v>
+        <v>0.201277859923195</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.726469984983055E-07</v>
       </c>
       <c r="I6">
-        <v>1.157650202679164</v>
+        <v>0.005674907190100775</v>
       </c>
       <c r="J6">
-        <v>0.06573803473584761</v>
+        <v>0.1864073091584189</v>
       </c>
       <c r="K6">
-        <v>0.9997640632171851</v>
+        <v>0.1655450207443252</v>
       </c>
       <c r="L6">
-        <v>0.1646490877241646</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2190367814891694</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.119614434285779</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.926808451898395</v>
+      </c>
+      <c r="P6">
+        <v>0.7000926300853934</v>
+      </c>
+      <c r="Q6">
+        <v>0.767320284146777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.032472277380151</v>
+        <v>1.056951713777352</v>
       </c>
       <c r="C7">
-        <v>0.1215760746750334</v>
+        <v>0.358989798611546</v>
       </c>
       <c r="D7">
-        <v>0.005930852780629436</v>
+        <v>0.04866874114199504</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.870043985225479</v>
+        <v>0.2990073881749922</v>
       </c>
       <c r="G7">
-        <v>0.0008686905943344455</v>
+        <v>0.2071473842515701</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.054047097128532E-05</v>
       </c>
       <c r="I7">
-        <v>1.162149340704616</v>
+        <v>0.006183814405288146</v>
       </c>
       <c r="J7">
-        <v>0.06548323026343805</v>
+        <v>0.1880003475008891</v>
       </c>
       <c r="K7">
-        <v>1.042939153176007</v>
+        <v>0.1653592191101989</v>
       </c>
       <c r="L7">
-        <v>0.1680578590603901</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2266161895603176</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.105867518258549</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.022108417965143</v>
+      </c>
+      <c r="P7">
+        <v>0.6967974151298364</v>
+      </c>
+      <c r="Q7">
+        <v>0.7831796512424631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.212601467451805</v>
+        <v>1.267558241401417</v>
       </c>
       <c r="C8">
-        <v>0.148064082313212</v>
+        <v>0.4078833059273563</v>
       </c>
       <c r="D8">
-        <v>0.007161572855810761</v>
+        <v>0.05834149636817898</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.941567015694304</v>
+        <v>0.3373062902347712</v>
       </c>
       <c r="G8">
-        <v>0.0008610537282178236</v>
+        <v>0.2344859497110434</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0006225773956143321</v>
       </c>
       <c r="I8">
-        <v>1.185217085235557</v>
+        <v>0.008458016220030729</v>
       </c>
       <c r="J8">
-        <v>0.06443259234737297</v>
+        <v>0.1959238527525784</v>
       </c>
       <c r="K8">
-        <v>1.236247877682189</v>
+        <v>0.1656129012521994</v>
       </c>
       <c r="L8">
-        <v>0.1835421010875891</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2606726809290834</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.049147992703354</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.443571554412628</v>
+      </c>
+      <c r="P8">
+        <v>0.6826263186580235</v>
+      </c>
+      <c r="Q8">
+        <v>0.858066953925487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.577448708240752</v>
+        <v>1.679427472569671</v>
       </c>
       <c r="C9">
-        <v>0.2016637033554076</v>
+        <v>0.5013503299431648</v>
       </c>
       <c r="D9">
-        <v>0.009597693446725231</v>
+        <v>0.07713477465487273</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.103839470063306</v>
+        <v>0.4171274678097205</v>
       </c>
       <c r="G9">
-        <v>0.0008469767328234621</v>
+        <v>0.2920724593121093</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003713068307310996</v>
       </c>
       <c r="I9">
-        <v>1.243169216710761</v>
+        <v>0.0135301705150459</v>
       </c>
       <c r="J9">
-        <v>0.06264225018456848</v>
+        <v>0.2140259448787418</v>
       </c>
       <c r="K9">
-        <v>1.627642587462987</v>
+        <v>0.1689203029305908</v>
       </c>
       <c r="L9">
-        <v>0.215698197100302</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3300452566600498</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.952961352586001</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.275926392296256</v>
+      </c>
+      <c r="P9">
+        <v>0.6574678404774161</v>
+      </c>
+      <c r="Q9">
+        <v>1.018660184154101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.854685646880569</v>
+        <v>2.00128906307404</v>
       </c>
       <c r="C10">
-        <v>0.2424685698248936</v>
+        <v>0.5776018777209799</v>
       </c>
       <c r="D10">
-        <v>0.01141084945636806</v>
+        <v>0.091665232490584</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.238787145014641</v>
+        <v>0.4741257083048822</v>
       </c>
       <c r="G10">
-        <v>0.0008371343472302996</v>
+        <v>0.3323174715164612</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006889427601151077</v>
       </c>
       <c r="I10">
-        <v>1.294705137884179</v>
+        <v>0.01794421292690007</v>
       </c>
       <c r="J10">
-        <v>0.06149643112602909</v>
+        <v>0.2265807187399673</v>
       </c>
       <c r="K10">
-        <v>1.925113399927511</v>
+        <v>0.1695861405459524</v>
       </c>
       <c r="L10">
-        <v>0.2406264581340025</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3830027913897638</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.892357776537963</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.690240466505173</v>
+      </c>
+      <c r="P10">
+        <v>0.6511976445101695</v>
+      </c>
+      <c r="Q10">
+        <v>1.130677312558561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.983314567093487</v>
+        <v>2.359978525263045</v>
       </c>
       <c r="C11">
-        <v>0.2614432352864924</v>
+        <v>0.6713087935963813</v>
       </c>
       <c r="D11">
-        <v>0.01224327913486434</v>
+        <v>0.1034780748293258</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.304155088004379</v>
+        <v>0.4696909526679605</v>
       </c>
       <c r="G11">
-        <v>0.0008327538437422845</v>
+        <v>0.3209724950088315</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0222077925598505</v>
       </c>
       <c r="I11">
-        <v>1.320389724673703</v>
+        <v>0.01990631695863154</v>
       </c>
       <c r="J11">
-        <v>0.06101320144879985</v>
+        <v>0.2172021775238449</v>
       </c>
       <c r="K11">
-        <v>2.063179919977387</v>
+        <v>0.1483738413872544</v>
       </c>
       <c r="L11">
-        <v>0.2523012137520766</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4076268172622406</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.867192878783243</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.326332679311719</v>
+      </c>
+      <c r="P11">
+        <v>0.7438598522049205</v>
+      </c>
+      <c r="Q11">
+        <v>1.087166794309496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.032430658713167</v>
+        <v>2.61161138601517</v>
       </c>
       <c r="C12">
-        <v>0.268697083091098</v>
+        <v>0.7347960376498008</v>
       </c>
       <c r="D12">
-        <v>0.01255983375804703</v>
+        <v>0.1102908362630046</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.32953179297256</v>
+        <v>0.4553014578132064</v>
       </c>
       <c r="G12">
-        <v>0.0008311079584810699</v>
+        <v>0.3045936828510634</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05911924233176791</v>
       </c>
       <c r="I12">
-        <v>1.330464938080013</v>
+        <v>0.02042294562321434</v>
       </c>
       <c r="J12">
-        <v>0.06083579437254016</v>
+        <v>0.2073143787077498</v>
       </c>
       <c r="K12">
-        <v>2.115910169448881</v>
+        <v>0.1322699101703719</v>
       </c>
       <c r="L12">
-        <v>0.2567749096393186</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4170370620396113</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.858029705901004</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.366771417987209</v>
+      </c>
+      <c r="P12">
+        <v>0.8393116999871637</v>
+      </c>
+      <c r="Q12">
+        <v>1.031813772928302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.021833750018288</v>
+        <v>2.788722919220447</v>
       </c>
       <c r="C13">
-        <v>0.2671316313318641</v>
+        <v>0.7805755169577822</v>
       </c>
       <c r="D13">
-        <v>0.01249159472785877</v>
+        <v>0.113816744472885</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.324037883449492</v>
+        <v>0.4307100882925283</v>
       </c>
       <c r="G13">
-        <v>0.0008314618719764688</v>
+        <v>0.281763744624584</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113834599094119</v>
       </c>
       <c r="I13">
-        <v>1.328279085167466</v>
+        <v>0.02009358586611487</v>
       </c>
       <c r="J13">
-        <v>0.0608737519671525</v>
+        <v>0.1956072327992473</v>
       </c>
       <c r="K13">
-        <v>2.104532977055186</v>
+        <v>0.1179107164768816</v>
       </c>
       <c r="L13">
-        <v>0.255808997308506</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4150064365419865</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.859986523620506</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6548066574654854</v>
+      </c>
+      <c r="P13">
+        <v>0.9410747104498682</v>
+      </c>
+      <c r="Q13">
+        <v>0.9588987592837839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.987346941468786</v>
+        <v>2.877997211264528</v>
       </c>
       <c r="C14">
-        <v>0.2620385836128207</v>
+        <v>0.8052289928840537</v>
       </c>
       <c r="D14">
-        <v>0.01226929412000999</v>
+        <v>0.1148362045909153</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.306230044764291</v>
+        <v>0.4087207364787773</v>
       </c>
       <c r="G14">
-        <v>0.000832618183050527</v>
+        <v>0.2627480014414019</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627656534843567</v>
       </c>
       <c r="I14">
-        <v>1.321211461545587</v>
+        <v>0.0195592428406588</v>
       </c>
       <c r="J14">
-        <v>0.06099849349996234</v>
+        <v>0.1865021750675382</v>
       </c>
       <c r="K14">
-        <v>2.067508783276566</v>
+        <v>0.1086300094732451</v>
       </c>
       <c r="L14">
-        <v>0.2526681831883479</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.408399232864106</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.866431554867376</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3023860796007369</v>
+      </c>
+      <c r="P14">
+        <v>1.016440621362065</v>
+      </c>
+      <c r="Q14">
+        <v>0.899484613718073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.966277222278393</v>
+        <v>2.880497086163473</v>
       </c>
       <c r="C15">
-        <v>0.2589281623426416</v>
+        <v>0.8078154549796182</v>
       </c>
       <c r="D15">
-        <v>0.01213330954536929</v>
+        <v>0.1144240193764716</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.295404991132258</v>
+        <v>0.400868254714581</v>
       </c>
       <c r="G15">
-        <v>0.0008333281077536257</v>
+        <v>0.2563999480125148</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.17517736316114</v>
       </c>
       <c r="I15">
-        <v>1.316928627162724</v>
+        <v>0.01932026820408517</v>
       </c>
       <c r="J15">
-        <v>0.06107563178071373</v>
+        <v>0.1837413005400492</v>
       </c>
       <c r="K15">
-        <v>2.044890310187526</v>
+        <v>0.1064441668001912</v>
       </c>
       <c r="L15">
-        <v>0.2507513521145057</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4043635647070332</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.870427658199546</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2346271103444444</v>
+      </c>
+      <c r="P15">
+        <v>1.03424719991709</v>
+      </c>
+      <c r="Q15">
+        <v>0.8802194770453582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.846333827940384</v>
+        <v>2.697406622408778</v>
       </c>
       <c r="C16">
-        <v>0.2412376000293506</v>
+        <v>0.7648106069396761</v>
       </c>
       <c r="D16">
-        <v>0.01135662097107826</v>
+        <v>0.1073727452711637</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.234599535595351</v>
+        <v>0.3805871553932008</v>
       </c>
       <c r="G16">
-        <v>0.0008374224877632575</v>
+        <v>0.2431074297028175</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621418019219618</v>
       </c>
       <c r="I16">
-        <v>1.293073915884349</v>
+        <v>0.01750985857934939</v>
       </c>
       <c r="J16">
-        <v>0.06152878583793608</v>
+        <v>0.1802801187883603</v>
       </c>
       <c r="K16">
-        <v>1.916150070677958</v>
+        <v>0.1085099772974925</v>
       </c>
       <c r="L16">
-        <v>0.2398706044622543</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3814050348040965</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.894052449246146</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2299794476084358</v>
+      </c>
+      <c r="P16">
+        <v>1.010461278690286</v>
+      </c>
+      <c r="Q16">
+        <v>0.8446196009633979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.773427303973847</v>
+        <v>2.509866887683813</v>
       </c>
       <c r="C17">
-        <v>0.2304969421136462</v>
+        <v>0.7189093338834027</v>
       </c>
       <c r="D17">
-        <v>0.01088225683195887</v>
+        <v>0.1014546002835743</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.198351537273666</v>
+        <v>0.37679280703491</v>
       </c>
       <c r="G17">
-        <v>0.0008399583684250108</v>
+        <v>0.2430331171639821</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242419266622647</v>
       </c>
       <c r="I17">
-        <v>1.279032051733637</v>
+        <v>0.01644370832238451</v>
       </c>
       <c r="J17">
-        <v>0.0618165955324308</v>
+        <v>0.1825099529640468</v>
       </c>
       <c r="K17">
-        <v>1.837911322227058</v>
+        <v>0.1149960464568949</v>
       </c>
       <c r="L17">
-        <v>0.2332844979201241</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3674634670347814</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.909175242775589</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3870525448580153</v>
+      </c>
+      <c r="P17">
+        <v>0.952159500978496</v>
+      </c>
+      <c r="Q17">
+        <v>0.8490167127375798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.731726912370448</v>
+        <v>2.304349024049486</v>
       </c>
       <c r="C18">
-        <v>0.224357406527858</v>
+        <v>0.6647015848060676</v>
       </c>
       <c r="D18">
-        <v>0.0106101160451928</v>
+        <v>0.0957336508705211</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.177873913788574</v>
+        <v>0.3874272210948035</v>
       </c>
       <c r="G18">
-        <v>0.0008414261206978171</v>
+        <v>0.2551315317916689</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07155784741414095</v>
       </c>
       <c r="I18">
-        <v>1.271164702585466</v>
+        <v>0.01569502859386773</v>
       </c>
       <c r="J18">
-        <v>0.06198570614989762</v>
+        <v>0.1902235585123222</v>
       </c>
       <c r="K18">
-        <v>1.793165471739968</v>
+        <v>0.1268731028888599</v>
       </c>
       <c r="L18">
-        <v>0.229527556882303</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3594942694198835</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.918098411165701</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8268958543200995</v>
+      </c>
+      <c r="P18">
+        <v>0.8634643683103604</v>
+      </c>
+      <c r="Q18">
+        <v>0.890744444269572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.717646650330181</v>
+        <v>2.09973507101995</v>
       </c>
       <c r="C19">
-        <v>0.2222849590043552</v>
+        <v>0.6133632939028359</v>
       </c>
       <c r="D19">
-        <v>0.01051808753354422</v>
+        <v>0.0909670289013107</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.171002825048774</v>
+        <v>0.4073351126060629</v>
       </c>
       <c r="G19">
-        <v>0.0008419246826827503</v>
+        <v>0.2748855236068692</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02719887147867439</v>
       </c>
       <c r="I19">
-        <v>1.268536097660729</v>
+        <v>0.01576216306506151</v>
       </c>
       <c r="J19">
-        <v>0.06204357389836623</v>
+        <v>0.2010196361449488</v>
       </c>
       <c r="K19">
-        <v>1.778057564254027</v>
+        <v>0.1419088185109096</v>
       </c>
       <c r="L19">
-        <v>0.2282607487960888</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3568042983224302</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.921157680157066</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.660100146294226</v>
+      </c>
+      <c r="P19">
+        <v>0.7699439551984426</v>
+      </c>
+      <c r="Q19">
+        <v>0.9551998733074356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.781163840958584</v>
+        <v>1.909997669153171</v>
       </c>
       <c r="C20">
-        <v>0.2316362848777516</v>
+        <v>0.5632305734128806</v>
       </c>
       <c r="D20">
-        <v>0.0109326795485778</v>
+        <v>0.08835467514847295</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.202171418502118</v>
+        <v>0.4558219549786955</v>
       </c>
       <c r="G20">
-        <v>0.0008396874764320421</v>
+        <v>0.3185108356969408</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005927299259425478</v>
       </c>
       <c r="I20">
-        <v>1.280504998151002</v>
+        <v>0.01732860620948973</v>
       </c>
       <c r="J20">
-        <v>0.0617855874008999</v>
+        <v>0.2216165688594174</v>
       </c>
       <c r="K20">
-        <v>1.84621321156601</v>
+        <v>0.1670189246705824</v>
       </c>
       <c r="L20">
-        <v>0.2339823378046617</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3689423724294727</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.907541972558363</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.572663488499856</v>
+      </c>
+      <c r="P20">
+        <v>0.6555861375232155</v>
+      </c>
+      <c r="Q20">
+        <v>1.090906955977999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.997465118881678</v>
+        <v>2.120570347233809</v>
       </c>
       <c r="C21">
-        <v>0.2635325964814399</v>
+        <v>0.6114028781410639</v>
       </c>
       <c r="D21">
-        <v>0.01233455101651515</v>
+        <v>0.0985906159756027</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.311443293635705</v>
+        <v>0.506280167980286</v>
       </c>
       <c r="G21">
-        <v>0.0008322782043935923</v>
+        <v>0.3558289333171416</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.009725267899454527</v>
       </c>
       <c r="I21">
-        <v>1.323277696031099</v>
+        <v>0.02094926043418166</v>
       </c>
       <c r="J21">
-        <v>0.06096170143339563</v>
+        <v>0.2346101060062153</v>
       </c>
       <c r="K21">
-        <v>2.078371099614543</v>
+        <v>0.1722186361741436</v>
       </c>
       <c r="L21">
-        <v>0.2535892471769472</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4103375286136028</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.864528380514201</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.207564442195192</v>
+      </c>
+      <c r="P21">
+        <v>0.6371174841491083</v>
+      </c>
+      <c r="Q21">
+        <v>1.197533191367228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.141227723782549</v>
+        <v>2.272981410064347</v>
       </c>
       <c r="C22">
-        <v>0.2847832118816314</v>
+        <v>0.6439225085737235</v>
       </c>
       <c r="D22">
-        <v>0.01325864980203306</v>
+        <v>0.1053843041509595</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.386518799243348</v>
+        <v>0.5393366632046934</v>
       </c>
       <c r="G22">
-        <v>0.0008275105734463983</v>
+        <v>0.3802005360787604</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01229354764056334</v>
       </c>
       <c r="I22">
-        <v>1.353280689451765</v>
+        <v>0.02320167758660041</v>
       </c>
       <c r="J22">
-        <v>0.06045583895858897</v>
+        <v>0.2431373615688557</v>
       </c>
       <c r="K22">
-        <v>2.232735733289815</v>
+        <v>0.1755244730783971</v>
       </c>
       <c r="L22">
-        <v>0.2667132012424815</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4378956911129919</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.838562103748501</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.521214649925426</v>
+      </c>
+      <c r="P22">
+        <v>0.6291631245340525</v>
+      </c>
+      <c r="Q22">
+        <v>1.267248905038798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.064263351084207</v>
+        <v>2.194694487727133</v>
       </c>
       <c r="C23">
-        <v>0.2734010498241162</v>
+        <v>0.6244812804604294</v>
       </c>
       <c r="D23">
-        <v>0.01276463191448229</v>
+        <v>0.1015696423767167</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.346096625924957</v>
+        <v>0.5227909001745346</v>
       </c>
       <c r="G23">
-        <v>0.0008300486631058842</v>
+        <v>0.3682784324934119</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01089094178514133</v>
       </c>
       <c r="I23">
-        <v>1.337070583965627</v>
+        <v>0.02175283016989482</v>
       </c>
       <c r="J23">
-        <v>0.0607228038802532</v>
+        <v>0.2391326809587326</v>
       </c>
       <c r="K23">
-        <v>2.15008857319549</v>
+        <v>0.1745758219347664</v>
       </c>
       <c r="L23">
-        <v>0.2596787435380037</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4231380917632279</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.852217180345676</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.353652825304493</v>
+      </c>
+      <c r="P23">
+        <v>0.6323606643732731</v>
+      </c>
+      <c r="Q23">
+        <v>1.233486487730033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.777665487757901</v>
+        <v>1.892286290170858</v>
       </c>
       <c r="C24">
-        <v>0.2311210784038735</v>
+        <v>0.5544304223166421</v>
       </c>
       <c r="D24">
-        <v>0.01090988165723061</v>
+        <v>0.08746778809429401</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.200443326970586</v>
+        <v>0.4594491520161199</v>
       </c>
       <c r="G24">
-        <v>0.0008398099160418164</v>
+        <v>0.3222636618222765</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.006287666280663573</v>
       </c>
       <c r="I24">
-        <v>1.279838440970138</v>
+        <v>0.01694480009674848</v>
       </c>
       <c r="J24">
-        <v>0.06179959483241859</v>
+        <v>0.2236223323522779</v>
       </c>
       <c r="K24">
-        <v>1.842459200441567</v>
+        <v>0.170177087671231</v>
       </c>
       <c r="L24">
-        <v>0.2336667528505245</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3682736167030356</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.908279662665734</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.723100769040201</v>
+      </c>
+      <c r="P24">
+        <v>0.6471821884544013</v>
+      </c>
+      <c r="Q24">
+        <v>1.1030586936715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.477297214879059</v>
+        <v>1.564067389181702</v>
       </c>
       <c r="C25">
-        <v>0.1869454441786189</v>
+        <v>0.4790863216975367</v>
       </c>
       <c r="D25">
-        <v>0.008935323615446578</v>
+        <v>0.07231785899851673</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.057356594988121</v>
+        <v>0.3934183088006122</v>
       </c>
       <c r="G25">
-        <v>0.000850693460821228</v>
+        <v>0.2744926862080064</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002642037068765424</v>
       </c>
       <c r="I25">
-        <v>1.226011523759091</v>
+        <v>0.01236650409108986</v>
       </c>
       <c r="J25">
-        <v>0.06309719635942912</v>
+        <v>0.2080539919090612</v>
       </c>
       <c r="K25">
-        <v>1.520204572165852</v>
+        <v>0.166553251645837</v>
       </c>
       <c r="L25">
-        <v>0.2067865103570981</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3109604882749011</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.977284320865593</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.049807191665522</v>
+      </c>
+      <c r="P25">
+        <v>0.6652449222370223</v>
+      </c>
+      <c r="Q25">
+        <v>0.9687280998622896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.327756498935145</v>
+        <v>1.29017088998711</v>
       </c>
       <c r="C2">
-        <v>0.4187722131484009</v>
+        <v>0.4348842444675824</v>
       </c>
       <c r="D2">
-        <v>0.06075058443180836</v>
+        <v>0.06323087430931906</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3492349088624636</v>
+        <v>0.3384368647136853</v>
       </c>
       <c r="G2">
-        <v>0.2433741298672842</v>
+        <v>0.2190126038303006</v>
       </c>
       <c r="H2">
-        <v>0.0009048996014353605</v>
+        <v>0.0008812282594079512</v>
       </c>
       <c r="I2">
-        <v>0.008909720735728044</v>
+        <v>0.008326820707275751</v>
       </c>
       <c r="J2">
-        <v>0.1988653931217428</v>
+        <v>0.2392883778065737</v>
       </c>
       <c r="K2">
-        <v>0.1667948254430343</v>
+        <v>0.1592234697477082</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1130770507010226</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02597468665281788</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.558109271162252</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6779924721657835</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8831575930900186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.556935898434077</v>
+      </c>
+      <c r="R2">
+        <v>0.6925695520731452</v>
+      </c>
+      <c r="S2">
+        <v>0.8526709611255399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.162284290597427</v>
+        <v>1.134191510526961</v>
       </c>
       <c r="C3">
-        <v>0.3807329066104472</v>
+        <v>0.3904072247727584</v>
       </c>
       <c r="D3">
-        <v>0.05317971507224684</v>
+        <v>0.05507890035035246</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3185655048051785</v>
+        <v>0.3106942752454813</v>
       </c>
       <c r="G3">
-        <v>0.2214029254986229</v>
+        <v>0.1991612379965133</v>
       </c>
       <c r="H3">
-        <v>0.0002273677226050097</v>
+        <v>0.000219292164252316</v>
       </c>
       <c r="I3">
-        <v>0.007053532365650206</v>
+        <v>0.006725497913643963</v>
       </c>
       <c r="J3">
-        <v>0.192324632653488</v>
+        <v>0.2330847711427921</v>
       </c>
       <c r="K3">
-        <v>0.166243450430791</v>
+        <v>0.16013702769507</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1175276712244546</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02331544867733371</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.226409272056515</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6888836045125331</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8226240641323272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.225668500510352</v>
+      </c>
+      <c r="R3">
+        <v>0.6992308547379622</v>
+      </c>
+      <c r="S3">
+        <v>0.8007136987072698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.059986651192219</v>
+        <v>1.037551652158953</v>
       </c>
       <c r="C4">
-        <v>0.3574362524586121</v>
+        <v>0.3632850697836858</v>
       </c>
       <c r="D4">
-        <v>0.04854101859803706</v>
+        <v>0.05009366387815106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3000752565341216</v>
+        <v>0.2939090802238411</v>
       </c>
       <c r="G4">
-        <v>0.2081687999014079</v>
+        <v>0.187201155750536</v>
       </c>
       <c r="H4">
-        <v>3.124936391740718E-05</v>
+        <v>2.91469709963188E-05</v>
       </c>
       <c r="I4">
-        <v>0.0060126997378811</v>
+        <v>0.00582752444595025</v>
       </c>
       <c r="J4">
-        <v>0.1885089644343623</v>
+        <v>0.2293411779857664</v>
       </c>
       <c r="K4">
-        <v>0.1660843431983956</v>
+        <v>0.1608151620157319</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1203948799104921</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02213995080584574</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.023252559773212</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6960497904704397</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7864116602959399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.022754278817743</v>
+      </c>
+      <c r="R4">
+        <v>0.7038554323113999</v>
+      </c>
+      <c r="S4">
+        <v>0.7694784327774755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.017392384989108</v>
+        <v>0.9972253645405829</v>
       </c>
       <c r="C5">
-        <v>0.3484528435333658</v>
+        <v>0.3527976628903673</v>
       </c>
       <c r="D5">
-        <v>0.04669819257709662</v>
+        <v>0.04811300383238404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2923323347923699</v>
+        <v>0.2868409865995289</v>
       </c>
       <c r="G5">
-        <v>0.2025525805498205</v>
+        <v>0.1821036673487342</v>
       </c>
       <c r="H5">
-        <v>2.719325251199223E-06</v>
+        <v>2.221187666240354E-06</v>
       </c>
       <c r="I5">
-        <v>0.005662269035703105</v>
+        <v>0.005545302621276171</v>
       </c>
       <c r="J5">
-        <v>0.1868567541528563</v>
+        <v>0.2276810818316406</v>
       </c>
       <c r="K5">
-        <v>0.1658462170363268</v>
+        <v>0.160911521583273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1214803315165156</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02173227620415918</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.940547384881199</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6992931605223589</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7709757787713301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.94014306751248</v>
+      </c>
+      <c r="R5">
+        <v>0.7060930310519637</v>
+      </c>
+      <c r="S5">
+        <v>0.7560121218296558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.009411135960931</v>
+        <v>0.9896234032676432</v>
       </c>
       <c r="C6">
-        <v>0.3475732016429589</v>
+        <v>0.3516988404342385</v>
       </c>
       <c r="D6">
-        <v>0.04644802792780922</v>
+        <v>0.04784112725504741</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2906991527663934</v>
+        <v>0.2853214110326547</v>
       </c>
       <c r="G6">
-        <v>0.201277859923195</v>
+        <v>0.180923086851152</v>
       </c>
       <c r="H6">
-        <v>9.726469984983055E-07</v>
+        <v>6.940325820714577E-07</v>
       </c>
       <c r="I6">
-        <v>0.005674907190100775</v>
+        <v>0.005586619355056222</v>
       </c>
       <c r="J6">
-        <v>0.1864073091584189</v>
+        <v>0.2272227627518291</v>
       </c>
       <c r="K6">
-        <v>0.1655450207443252</v>
+        <v>0.1606755129245592</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1215206492074046</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0216187447288716</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.926808451898395</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7000926300853934</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.767320284146777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.926419676374934</v>
+      </c>
+      <c r="R6">
+        <v>0.7067457694750132</v>
+      </c>
+      <c r="S6">
+        <v>0.7526937371995643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.056951713777352</v>
+        <v>1.033717872342407</v>
       </c>
       <c r="C7">
-        <v>0.358989798611546</v>
+        <v>0.3643787253798081</v>
       </c>
       <c r="D7">
-        <v>0.04866874114199504</v>
+        <v>0.05033148563825307</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2990073881749922</v>
+        <v>0.2922076271047516</v>
       </c>
       <c r="G7">
-        <v>0.2071473842515701</v>
+        <v>0.1887489287341282</v>
       </c>
       <c r="H7">
-        <v>3.054047097128532E-05</v>
+        <v>2.842266877811639E-05</v>
       </c>
       <c r="I7">
-        <v>0.006183814405288146</v>
+        <v>0.006039250144282526</v>
       </c>
       <c r="J7">
-        <v>0.1880003475008891</v>
+        <v>0.225117529980551</v>
       </c>
       <c r="K7">
-        <v>0.1653592191101989</v>
+        <v>0.1598973889442412</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1199098645640806</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02192726365523789</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.022108417965143</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6967974151298364</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7831796512424631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.021600623788302</v>
+      </c>
+      <c r="R7">
+        <v>0.7049204675004361</v>
+      </c>
+      <c r="S7">
+        <v>0.7642931610246251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.267558241401417</v>
+        <v>1.230482508708917</v>
       </c>
       <c r="C8">
-        <v>0.4078833059273563</v>
+        <v>0.420118961904052</v>
       </c>
       <c r="D8">
-        <v>0.05834149636817898</v>
+        <v>0.06099110415213715</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3373062902347712</v>
+        <v>0.325383799690961</v>
       </c>
       <c r="G8">
-        <v>0.2344859497110434</v>
+        <v>0.2194163335196322</v>
       </c>
       <c r="H8">
-        <v>0.0006225773956143321</v>
+        <v>0.0006044273409093748</v>
       </c>
       <c r="I8">
-        <v>0.008458016220030729</v>
+        <v>0.008002680005634311</v>
       </c>
       <c r="J8">
-        <v>0.1959238527525784</v>
+        <v>0.2244062700334837</v>
       </c>
       <c r="K8">
-        <v>0.1656129012521994</v>
+        <v>0.1578640301063992</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1137808178300883</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02449697835599451</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.443571554412628</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6826263186580235</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.858066953925487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.442514062911926</v>
+      </c>
+      <c r="R8">
+        <v>0.6967937831722182</v>
+      </c>
+      <c r="S8">
+        <v>0.8239569491126701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.679427472569671</v>
+        <v>1.616816777362658</v>
       </c>
       <c r="C9">
-        <v>0.5013503299431648</v>
+        <v>0.5297507269418418</v>
       </c>
       <c r="D9">
-        <v>0.07713477465487273</v>
+        <v>0.08139860744956451</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4171274678097205</v>
+        <v>0.3967260128707295</v>
       </c>
       <c r="G9">
-        <v>0.2920724593121093</v>
+        <v>0.2739567033086132</v>
       </c>
       <c r="H9">
-        <v>0.003713068307310996</v>
+        <v>0.003631161825212059</v>
       </c>
       <c r="I9">
-        <v>0.0135301705150459</v>
+        <v>0.01228604246847276</v>
       </c>
       <c r="J9">
-        <v>0.2140259448787418</v>
+        <v>0.2375113394642909</v>
       </c>
       <c r="K9">
-        <v>0.1689203029305908</v>
+        <v>0.1569232475551274</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.103863212250964</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03374489269215886</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.275926392296256</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6574678404774161</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.018660184154101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.273607397556177</v>
+      </c>
+      <c r="R9">
+        <v>0.6827852327237025</v>
+      </c>
+      <c r="S9">
+        <v>0.959499711111846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.00128906307404</v>
+        <v>1.914144594776872</v>
       </c>
       <c r="C10">
-        <v>0.5776018777209799</v>
+        <v>0.6152090269655446</v>
       </c>
       <c r="D10">
-        <v>0.091665232490584</v>
+        <v>0.09780900157742423</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4741257083048822</v>
+        <v>0.4435237943566932</v>
       </c>
       <c r="G10">
-        <v>0.3323174715164612</v>
+        <v>0.3276907614019109</v>
       </c>
       <c r="H10">
-        <v>0.006889427601151077</v>
+        <v>0.006740754155700746</v>
       </c>
       <c r="I10">
-        <v>0.01794421292690007</v>
+        <v>0.01601266074615992</v>
       </c>
       <c r="J10">
-        <v>0.2265807187399673</v>
+        <v>0.225907974799064</v>
       </c>
       <c r="K10">
-        <v>0.1695861405459524</v>
+        <v>0.1533217340537973</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09596577840581411</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04131964867287152</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.690240466505173</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6511976445101695</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.130677312558561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.686884970665844</v>
+      </c>
+      <c r="R10">
+        <v>0.6877018559966857</v>
+      </c>
+      <c r="S10">
+        <v>1.041032247758579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.359978525263045</v>
+        <v>2.254128093590623</v>
       </c>
       <c r="C11">
-        <v>0.6713087935963813</v>
+        <v>0.7054834637172291</v>
       </c>
       <c r="D11">
-        <v>0.1034780748293258</v>
+        <v>0.111464714564832</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4696909526679605</v>
+        <v>0.4313716056298915</v>
       </c>
       <c r="G11">
-        <v>0.3209724950088315</v>
+        <v>0.3522784253113116</v>
       </c>
       <c r="H11">
-        <v>0.0222077925598505</v>
+        <v>0.02209094622590158</v>
       </c>
       <c r="I11">
-        <v>0.01990631695863154</v>
+        <v>0.01773418743296773</v>
       </c>
       <c r="J11">
-        <v>0.2172021775238449</v>
+        <v>0.1798722689772418</v>
       </c>
       <c r="K11">
-        <v>0.1483738413872544</v>
+        <v>0.1321181666617477</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08603910486478838</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03664016192659503</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.326332679311719</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7438598522049205</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.087166794309496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.323746742125124</v>
+      </c>
+      <c r="R11">
+        <v>0.7968040959385263</v>
+      </c>
+      <c r="S11">
+        <v>0.975851631784451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.61161138601517</v>
+        <v>2.498165397898106</v>
       </c>
       <c r="C12">
-        <v>0.7347960376498008</v>
+        <v>0.7650655688584891</v>
       </c>
       <c r="D12">
-        <v>0.1102908362630046</v>
+        <v>0.1190333640972483</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4553014578132064</v>
+        <v>0.4150840187472582</v>
       </c>
       <c r="G12">
-        <v>0.3045936828510634</v>
+        <v>0.3531728012660693</v>
       </c>
       <c r="H12">
-        <v>0.05911924233176791</v>
+        <v>0.05903585596551153</v>
       </c>
       <c r="I12">
-        <v>0.02042294562321434</v>
+        <v>0.01812141103604059</v>
       </c>
       <c r="J12">
-        <v>0.2073143787077498</v>
+        <v>0.15800871949628</v>
       </c>
       <c r="K12">
-        <v>0.1322699101703719</v>
+        <v>0.1176876416833572</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08046040305273117</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03192876513226039</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.366771417987209</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8393116999871637</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.031813772928302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.364983253276847</v>
+      </c>
+      <c r="R12">
+        <v>0.902544407319013</v>
+      </c>
+      <c r="S12">
+        <v>0.9163095495709399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.788722919220447</v>
+        <v>2.679541150294028</v>
       </c>
       <c r="C13">
-        <v>0.7805755169577822</v>
+        <v>0.8085577315972614</v>
       </c>
       <c r="D13">
-        <v>0.113816744472885</v>
+        <v>0.1221202564194925</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4307100882925283</v>
+        <v>0.3944968002478006</v>
       </c>
       <c r="G13">
-        <v>0.281763744624584</v>
+        <v>0.3270335610467185</v>
       </c>
       <c r="H13">
-        <v>0.113834599094119</v>
+        <v>0.1137836141619459</v>
       </c>
       <c r="I13">
-        <v>0.02009358586611487</v>
+        <v>0.01784689711173204</v>
       </c>
       <c r="J13">
-        <v>0.1956072327992473</v>
+        <v>0.1541257159224969</v>
       </c>
       <c r="K13">
-        <v>0.1179107164768816</v>
+        <v>0.1065980379263216</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07707225577616761</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02680590627686108</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6548066574654854</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9410747104498682</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9588987592837839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6537674273911023</v>
+      </c>
+      <c r="R13">
+        <v>1.007391790729883</v>
+      </c>
+      <c r="S13">
+        <v>0.8566332333826523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.877997211264528</v>
+        <v>2.777550143431142</v>
       </c>
       <c r="C14">
-        <v>0.8052289928840537</v>
+        <v>0.8324565952871694</v>
       </c>
       <c r="D14">
-        <v>0.1148362045909153</v>
+        <v>0.1222822100143901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4087207364787773</v>
+        <v>0.3777642209650267</v>
       </c>
       <c r="G14">
-        <v>0.2627480014414019</v>
+        <v>0.2973814141466988</v>
       </c>
       <c r="H14">
-        <v>0.1627656534843567</v>
+        <v>0.1627336702164683</v>
       </c>
       <c r="I14">
-        <v>0.0195592428406588</v>
+        <v>0.01744707095061937</v>
       </c>
       <c r="J14">
-        <v>0.1865021750675382</v>
+        <v>0.1583926326263452</v>
       </c>
       <c r="K14">
-        <v>0.1086300094732451</v>
+        <v>0.1001146488445599</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07547804181236284</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02308295840301433</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3023860796007369</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.016440621362065</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.899484613718073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3017857954704652</v>
+      </c>
+      <c r="R14">
+        <v>1.080818037509147</v>
+      </c>
+      <c r="S14">
+        <v>0.8135360023610048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.880497086163473</v>
+        <v>2.784641175920399</v>
       </c>
       <c r="C15">
-        <v>0.8078154549796182</v>
+        <v>0.8352717431066878</v>
       </c>
       <c r="D15">
-        <v>0.1144240193764716</v>
+        <v>0.121427402815101</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.400868254714581</v>
+        <v>0.3722645703590644</v>
       </c>
       <c r="G15">
-        <v>0.2563999480125148</v>
+        <v>0.2850281907182222</v>
       </c>
       <c r="H15">
-        <v>0.17517736316114</v>
+        <v>0.1751507008471833</v>
       </c>
       <c r="I15">
-        <v>0.01932026820408517</v>
+        <v>0.01730512355427294</v>
       </c>
       <c r="J15">
-        <v>0.1837413005400492</v>
+        <v>0.162478994448783</v>
       </c>
       <c r="K15">
-        <v>0.1064441668001912</v>
+        <v>0.09886839935638925</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07535848727746064</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02199832094409082</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2346271103444444</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.03424719991709</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8802194770453582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2341249620119967</v>
+      </c>
+      <c r="R15">
+        <v>1.096511789684641</v>
+      </c>
+      <c r="S15">
+        <v>0.8013472072524195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.697406622408778</v>
+        <v>2.621913591593966</v>
       </c>
       <c r="C16">
-        <v>0.7648106069396761</v>
+        <v>0.7948486928933107</v>
       </c>
       <c r="D16">
-        <v>0.1073727452711637</v>
+        <v>0.1124314144724821</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3805871553932008</v>
+        <v>0.3610301904419657</v>
       </c>
       <c r="G16">
-        <v>0.2431074297028175</v>
+        <v>0.2441604127608059</v>
       </c>
       <c r="H16">
-        <v>0.1621418019219618</v>
+        <v>0.1621291668041067</v>
       </c>
       <c r="I16">
-        <v>0.01750985857934939</v>
+        <v>0.01590166225845113</v>
       </c>
       <c r="J16">
-        <v>0.1802801187883603</v>
+        <v>0.1908555605629942</v>
       </c>
       <c r="K16">
-        <v>0.1085099772974925</v>
+        <v>0.1031592740113449</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07846226334057516</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02069177055527938</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2299794476084358</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.010461278690286</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8446196009633979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2295216312817381</v>
+      </c>
+      <c r="R16">
+        <v>1.059583454017954</v>
+      </c>
+      <c r="S16">
+        <v>0.7919885484793809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.509866887683813</v>
+        <v>2.442970776036702</v>
       </c>
       <c r="C17">
-        <v>0.7189093338834027</v>
+        <v>0.750069210709654</v>
       </c>
       <c r="D17">
-        <v>0.1014546002835743</v>
+        <v>0.1057293308637668</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.37679280703491</v>
+        <v>0.3605050993258345</v>
       </c>
       <c r="G17">
-        <v>0.2430331171639821</v>
+        <v>0.2321786675274424</v>
       </c>
       <c r="H17">
-        <v>0.1242419266622647</v>
+        <v>0.1242312585716832</v>
       </c>
       <c r="I17">
-        <v>0.01644370832238451</v>
+        <v>0.01506093939700737</v>
       </c>
       <c r="J17">
-        <v>0.1825099529640468</v>
+        <v>0.2076815035027408</v>
       </c>
       <c r="K17">
-        <v>0.1149960464568949</v>
+        <v>0.1098479870078055</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08192496332914878</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02148957421043995</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3870525448580153</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.952159500978496</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8490167127375798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3864586691290839</v>
+      </c>
+      <c r="R17">
+        <v>0.9944524787837565</v>
+      </c>
+      <c r="S17">
+        <v>0.8055141133235963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.304349024049486</v>
+        <v>2.239603598293002</v>
       </c>
       <c r="C18">
-        <v>0.6647015848060676</v>
+        <v>0.6970741309027915</v>
       </c>
       <c r="D18">
-        <v>0.0957336508705211</v>
+        <v>0.09981201837247511</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3874272210948035</v>
+        <v>0.3712587143894268</v>
       </c>
       <c r="G18">
-        <v>0.2551315317916689</v>
+        <v>0.2379208797598693</v>
       </c>
       <c r="H18">
-        <v>0.07155784741414095</v>
+        <v>0.07153711491903891</v>
       </c>
       <c r="I18">
-        <v>0.01569502859386773</v>
+        <v>0.01436910269424274</v>
       </c>
       <c r="J18">
-        <v>0.1902235585123222</v>
+        <v>0.221226715963347</v>
       </c>
       <c r="K18">
-        <v>0.1268731028888599</v>
+        <v>0.1204821716838484</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08652889828099219</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02450255126733225</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8268958543200995</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8634643683103604</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.890744444269572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.82596271659434</v>
+      </c>
+      <c r="R18">
+        <v>0.9015690932474172</v>
+      </c>
+      <c r="S18">
+        <v>0.8468823079833641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.09973507101995</v>
+        <v>2.033339472996488</v>
       </c>
       <c r="C19">
-        <v>0.6133632939028359</v>
+        <v>0.6474658116293597</v>
       </c>
       <c r="D19">
-        <v>0.0909670289013107</v>
+        <v>0.09520065930305321</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4073351126060629</v>
+        <v>0.3893026383091254</v>
       </c>
       <c r="G19">
-        <v>0.2748855236068692</v>
+        <v>0.2539073618044654</v>
       </c>
       <c r="H19">
-        <v>0.02719887147867439</v>
+        <v>0.02715269646787988</v>
       </c>
       <c r="I19">
-        <v>0.01576216306506151</v>
+        <v>0.01446706694527666</v>
       </c>
       <c r="J19">
-        <v>0.2010196361449488</v>
+        <v>0.232774348639424</v>
       </c>
       <c r="K19">
-        <v>0.1419088185109096</v>
+        <v>0.1332653996474011</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09157113894812952</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02900824465316987</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.660100146294226</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7699439551984426</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9551998733074356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.658587730845511</v>
+      </c>
+      <c r="R19">
+        <v>0.804917829994551</v>
+      </c>
+      <c r="S19">
+        <v>0.9049556751207319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909997669153171</v>
+        <v>1.832667374672582</v>
       </c>
       <c r="C20">
-        <v>0.5632305734128806</v>
+        <v>0.6007257650002487</v>
       </c>
       <c r="D20">
-        <v>0.08835467514847295</v>
+        <v>0.09360151044931087</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4558219549786955</v>
+        <v>0.4304007801137999</v>
       </c>
       <c r="G20">
-        <v>0.3185108356969408</v>
+        <v>0.3008723368025272</v>
       </c>
       <c r="H20">
-        <v>0.005927299259425478</v>
+        <v>0.005800403876140781</v>
       </c>
       <c r="I20">
-        <v>0.01732860620948973</v>
+        <v>0.01577990913328442</v>
       </c>
       <c r="J20">
-        <v>0.2216165688594174</v>
+        <v>0.2396639827803355</v>
       </c>
       <c r="K20">
-        <v>0.1670189246705824</v>
+        <v>0.1528905778256338</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09747798897537407</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03867952185038703</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.572663488499856</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6555861375232155</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.090906955977999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.569646894171584</v>
+      </c>
+      <c r="R20">
+        <v>0.688237878045399</v>
+      </c>
+      <c r="S20">
+        <v>1.017067694822515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.120570347233809</v>
+        <v>2.00710863046092</v>
       </c>
       <c r="C21">
-        <v>0.6114028781410639</v>
+        <v>0.6459087697723476</v>
       </c>
       <c r="D21">
-        <v>0.0985906159756027</v>
+        <v>0.1075671558331379</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.506280167980286</v>
+        <v>0.4597013364035618</v>
       </c>
       <c r="G21">
-        <v>0.3558289333171416</v>
+        <v>0.4009605770659022</v>
       </c>
       <c r="H21">
-        <v>0.009725267899454527</v>
+        <v>0.009511000337540376</v>
       </c>
       <c r="I21">
-        <v>0.02094926043418166</v>
+        <v>0.01864212764894901</v>
       </c>
       <c r="J21">
-        <v>0.2346101060062153</v>
+        <v>0.1768298762648257</v>
       </c>
       <c r="K21">
-        <v>0.1722186361741436</v>
+        <v>0.1499064684505953</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.091672218335205</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04481188603999797</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.207564442195192</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6371174841491083</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.197533191367228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.203168059329798</v>
+      </c>
+      <c r="R21">
+        <v>0.6838372020378714</v>
+      </c>
+      <c r="S21">
+        <v>1.059232607354176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.272981410064347</v>
+        <v>2.134143208036448</v>
       </c>
       <c r="C22">
-        <v>0.6439225085737235</v>
+        <v>0.675458843774237</v>
       </c>
       <c r="D22">
-        <v>0.1053843041509595</v>
+        <v>0.1170333397595442</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5393366632046934</v>
+        <v>0.4777856213904386</v>
       </c>
       <c r="G22">
-        <v>0.3802005360787604</v>
+        <v>0.4751414162511196</v>
       </c>
       <c r="H22">
-        <v>0.01229354764056334</v>
+        <v>0.01201654713287781</v>
       </c>
       <c r="I22">
-        <v>0.02320167758660041</v>
+        <v>0.02029417857059901</v>
       </c>
       <c r="J22">
-        <v>0.2431373615688557</v>
+        <v>0.1416262576531793</v>
       </c>
       <c r="K22">
-        <v>0.1755244730783971</v>
+        <v>0.1475544695886839</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08793321259922671</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04889563056049084</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.521214649925426</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6291631245340525</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.267248905038798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.515911312541448</v>
+      </c>
+      <c r="R22">
+        <v>0.6861665812792168</v>
+      </c>
+      <c r="S22">
+        <v>1.083466252996516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.194694487727133</v>
+        <v>2.071694980444136</v>
       </c>
       <c r="C23">
-        <v>0.6244812804604294</v>
+        <v>0.6589272293780368</v>
       </c>
       <c r="D23">
-        <v>0.1015696423767167</v>
+        <v>0.1114591868022501</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5227909001745346</v>
+        <v>0.4709524840097785</v>
       </c>
       <c r="G23">
-        <v>0.3682784324934119</v>
+        <v>0.4284012987222212</v>
       </c>
       <c r="H23">
-        <v>0.01089094178514133</v>
+        <v>0.010649889970618</v>
       </c>
       <c r="I23">
-        <v>0.02175283016989482</v>
+        <v>0.01912093890657918</v>
       </c>
       <c r="J23">
-        <v>0.2391326809587326</v>
+        <v>0.166090393563195</v>
       </c>
       <c r="K23">
-        <v>0.1745758219347664</v>
+        <v>0.1500995733726818</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09032775537952631</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04726684478065835</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.353652825304493</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6323606643732731</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.233486487730033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.348871806419993</v>
+      </c>
+      <c r="R23">
+        <v>0.6827370419674139</v>
+      </c>
+      <c r="S23">
+        <v>1.079152590678774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.892286290170858</v>
+        <v>1.815084398003762</v>
       </c>
       <c r="C24">
-        <v>0.5544304223166421</v>
+        <v>0.5917861988196194</v>
       </c>
       <c r="D24">
-        <v>0.08746778809429401</v>
+        <v>0.092692953912902</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4594491520161199</v>
+        <v>0.4338933823929381</v>
       </c>
       <c r="G24">
-        <v>0.3222636618222765</v>
+        <v>0.3038261710664045</v>
       </c>
       <c r="H24">
-        <v>0.006287666280663573</v>
+        <v>0.006155321792286506</v>
       </c>
       <c r="I24">
-        <v>0.01694480009674848</v>
+        <v>0.01529369217045407</v>
       </c>
       <c r="J24">
-        <v>0.2236223323522779</v>
+        <v>0.2421812856264225</v>
       </c>
       <c r="K24">
-        <v>0.170177087671231</v>
+        <v>0.1556889402933983</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09858191781143155</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03968567097006037</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.723100769040201</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6471821884544013</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.1030586936715</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.719981459319158</v>
+      </c>
+      <c r="R24">
+        <v>0.6789441638601943</v>
+      </c>
+      <c r="S24">
+        <v>1.028637746664202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.564067389181702</v>
+        <v>1.509813326222996</v>
       </c>
       <c r="C25">
-        <v>0.4790863216975367</v>
+        <v>0.5039710670001227</v>
       </c>
       <c r="D25">
-        <v>0.07231785899851673</v>
+        <v>0.07598390452861992</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3934183088006122</v>
+        <v>0.3763725712799655</v>
       </c>
       <c r="G25">
-        <v>0.2744926862080064</v>
+        <v>0.2535608310895299</v>
       </c>
       <c r="H25">
-        <v>0.002642037068765424</v>
+        <v>0.002582032579072413</v>
       </c>
       <c r="I25">
-        <v>0.01236650409108986</v>
+        <v>0.01144923561332423</v>
       </c>
       <c r="J25">
-        <v>0.2080539919090612</v>
+        <v>0.2381434264948155</v>
       </c>
       <c r="K25">
-        <v>0.166553251645837</v>
+        <v>0.1561783279825306</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1060628712481275</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03053821519503153</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.049807191665522</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6652449222370223</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9687280998622896</v>
+        <v>3.047879065220471</v>
+      </c>
+      <c r="R25">
+        <v>0.687221718458126</v>
+      </c>
+      <c r="S25">
+        <v>0.9196781904035873</v>
       </c>
     </row>
   </sheetData>
